--- a/output/article/Supp-mat1d_taxa_hab.xlsx
+++ b/output/article/Supp-mat1d_taxa_hab.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Northeast Atlantic</t>
+    <t xml:space="preserve">Central North Atlantic</t>
   </si>
   <si>
     <t xml:space="preserve">oceanic</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">shelf</t>
   </si>
   <si>
-    <t xml:space="preserve">Central North Atlantic</t>
+    <t xml:space="preserve">Northeast Atlantic</t>
   </si>
   <si>
     <t xml:space="preserve">Gulf of Alaska</t>
@@ -506,28 +506,28 @@
         <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>16901.3286576178</v>
+        <v>37485.8850021217</v>
       </c>
       <c r="F2" t="n">
-        <v>40942.4701175864</v>
+        <v>82521.8325764481</v>
       </c>
       <c r="G2" t="n">
-        <v>115008.04067282</v>
+        <v>185742.415412402</v>
       </c>
       <c r="H2" t="n">
-        <v>104658.277264856</v>
+        <v>172220.247001479</v>
       </c>
       <c r="I2" t="n">
-        <v>250974.206737793</v>
+        <v>370535.116298305</v>
       </c>
       <c r="J2" t="n">
-        <v>648712.650075603</v>
+        <v>1162080.78676884</v>
       </c>
       <c r="K2" t="n">
-        <v>190587.844116008</v>
+        <v>315157.391143707</v>
       </c>
       <c r="L2" t="n">
-        <v>0.603438488987871</v>
+        <v>0.589363983304793</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
@@ -547,28 +547,28 @@
         <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>12930.8539166195</v>
+        <v>22585.4438934668</v>
       </c>
       <c r="F3" t="n">
-        <v>20360.1418391378</v>
+        <v>52658.2341291492</v>
       </c>
       <c r="G3" t="n">
-        <v>41327.0179412038</v>
+        <v>116427.92877195</v>
       </c>
       <c r="H3" t="n">
-        <v>38609.8247436038</v>
+        <v>108612.704061631</v>
       </c>
       <c r="I3" t="n">
-        <v>78329.2250881021</v>
+        <v>226796.145778592</v>
       </c>
       <c r="J3" t="n">
-        <v>142740.022550705</v>
+        <v>486790.83614605</v>
       </c>
       <c r="K3" t="n">
-        <v>190587.844116008</v>
+        <v>315157.391143707</v>
       </c>
       <c r="L3" t="n">
-        <v>0.216839736725542</v>
+        <v>0.369427886014137</v>
       </c>
       <c r="M3" t="s">
         <v>17</v>
@@ -588,28 +588,28 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>9277.57419635958</v>
+        <v>2356.8141208799</v>
       </c>
       <c r="F4" t="n">
-        <v>17846.5193707543</v>
+        <v>4695.55129349055</v>
       </c>
       <c r="G4" t="n">
-        <v>34252.7855019843</v>
+        <v>12987.0469593547</v>
       </c>
       <c r="H4" t="n">
-        <v>32619.7433299421</v>
+        <v>11653.0741574609</v>
       </c>
       <c r="I4" t="n">
-        <v>59842.7100761047</v>
+        <v>29171.2957385752</v>
       </c>
       <c r="J4" t="n">
-        <v>133407.555966138</v>
+        <v>63541.9634823214</v>
       </c>
       <c r="K4" t="n">
-        <v>190587.844116008</v>
+        <v>315157.391143707</v>
       </c>
       <c r="L4" t="n">
-        <v>0.179721774286587</v>
+        <v>0.0412081306810693</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
@@ -629,28 +629,28 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>1517.80992042517</v>
+        <v>4497.78767922878</v>
       </c>
       <c r="F5" t="n">
-        <v>4034.45480435485</v>
+        <v>8571.49207625289</v>
       </c>
       <c r="G5" t="n">
-        <v>11350.4484034091</v>
+        <v>19121.4791014892</v>
       </c>
       <c r="H5" t="n">
-        <v>10332.1577364619</v>
+        <v>17809.4247063026</v>
       </c>
       <c r="I5" t="n">
-        <v>24890.1820481969</v>
+        <v>37342.7963180421</v>
       </c>
       <c r="J5" t="n">
-        <v>72676.569904901</v>
+        <v>95912.8846540229</v>
       </c>
       <c r="K5" t="n">
-        <v>19091.7805259841</v>
+        <v>30988.0410033223</v>
       </c>
       <c r="L5" t="n">
-        <v>0.594520159498013</v>
+        <v>0.617059952238968</v>
       </c>
       <c r="M5" t="s">
         <v>17</v>
@@ -670,28 +670,28 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>950.549415310775</v>
+        <v>1978.91023693746</v>
       </c>
       <c r="F6" t="n">
-        <v>1742.4676748416</v>
+        <v>4521.17293686401</v>
       </c>
       <c r="G6" t="n">
-        <v>3577.22961736678</v>
+        <v>10136.7650762886</v>
       </c>
       <c r="H6" t="n">
-        <v>3335.46814772499</v>
+        <v>9437.69648415862</v>
       </c>
       <c r="I6" t="n">
-        <v>6746.69198814801</v>
+        <v>19662.6705095946</v>
       </c>
       <c r="J6" t="n">
-        <v>13762.790464702</v>
+        <v>40309.2977873247</v>
       </c>
       <c r="K6" t="n">
-        <v>19091.7805259841</v>
+        <v>30988.0410033223</v>
       </c>
       <c r="L6" t="n">
-        <v>0.18737014143328</v>
+        <v>0.327118615700869</v>
       </c>
       <c r="M6" t="s">
         <v>17</v>
@@ -711,28 +711,28 @@
         <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>1136.62571402095</v>
+        <v>250.254987309596</v>
       </c>
       <c r="F7" t="n">
-        <v>2094.6850606672</v>
+        <v>568.523618451195</v>
       </c>
       <c r="G7" t="n">
-        <v>4164.10250520819</v>
+        <v>1729.7968255445</v>
       </c>
       <c r="H7" t="n">
-        <v>3944.3054155585</v>
+        <v>1497.23091928841</v>
       </c>
       <c r="I7" t="n">
-        <v>7519.69966786055</v>
+        <v>4267.08195729896</v>
       </c>
       <c r="J7" t="n">
-        <v>14250.9892109111</v>
+        <v>12431.2545534793</v>
       </c>
       <c r="K7" t="n">
-        <v>19091.7805259841</v>
+        <v>30988.0410033223</v>
       </c>
       <c r="L7" t="n">
-        <v>0.218109699068707</v>
+        <v>0.055821432060163</v>
       </c>
       <c r="M7" t="s">
         <v>17</v>
@@ -752,28 +752,28 @@
         <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>5.41224095830597</v>
+        <v>17.7810446927995</v>
       </c>
       <c r="F8" t="n">
-        <v>20.1714544381016</v>
+        <v>45.4823334279642</v>
       </c>
       <c r="G8" t="n">
-        <v>79.6092497950228</v>
+        <v>132.140007100245</v>
       </c>
       <c r="H8" t="n">
-        <v>70.1768001444611</v>
+        <v>120.079805374567</v>
       </c>
       <c r="I8" t="n">
-        <v>194.184988908031</v>
+        <v>288.984109282236</v>
       </c>
       <c r="J8" t="n">
-        <v>461.750668690582</v>
+        <v>668.009249130249</v>
       </c>
       <c r="K8" t="n">
-        <v>134.744724504121</v>
+        <v>212.163381607669</v>
       </c>
       <c r="L8" t="n">
-        <v>0.590815336837831</v>
+        <v>0.622821931376441</v>
       </c>
       <c r="M8" t="s">
         <v>17</v>
@@ -793,28 +793,28 @@
         <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>2.92604611993333</v>
+        <v>5.94351515482316</v>
       </c>
       <c r="F9" t="n">
-        <v>6.33012491731484</v>
+        <v>18.3731605826389</v>
       </c>
       <c r="G9" t="n">
-        <v>24.9622903334982</v>
+        <v>71.4255517783051</v>
       </c>
       <c r="H9" t="n">
-        <v>18.8780863310735</v>
+        <v>56.5080789226577</v>
       </c>
       <c r="I9" t="n">
-        <v>77.7177834972177</v>
+        <v>209.468631393121</v>
       </c>
       <c r="J9" t="n">
-        <v>196.304273970165</v>
+        <v>538.623157325886</v>
       </c>
       <c r="K9" t="n">
-        <v>134.744724504121</v>
+        <v>212.163381607669</v>
       </c>
       <c r="L9" t="n">
-        <v>0.185256160679855</v>
+        <v>0.336653531995379</v>
       </c>
       <c r="M9" t="s">
         <v>17</v>
@@ -834,28 +834,28 @@
         <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>5.90056509257507</v>
+        <v>0.930778448813074</v>
       </c>
       <c r="F10" t="n">
-        <v>12.0210339466061</v>
+        <v>2.42313655028105</v>
       </c>
       <c r="G10" t="n">
-        <v>30.1731843755997</v>
+        <v>8.59782272911849</v>
       </c>
       <c r="H10" t="n">
-        <v>27.7943508232212</v>
+        <v>7.12793429702034</v>
       </c>
       <c r="I10" t="n">
-        <v>61.6113024335281</v>
+        <v>23.8309439610768</v>
       </c>
       <c r="J10" t="n">
-        <v>118.644690862391</v>
+        <v>90.6976707327598</v>
       </c>
       <c r="K10" t="n">
-        <v>134.744724504121</v>
+        <v>212.163381607669</v>
       </c>
       <c r="L10" t="n">
-        <v>0.223928502482314</v>
+        <v>0.0405245366281799</v>
       </c>
       <c r="M10" t="s">
         <v>17</v>
@@ -875,28 +875,28 @@
         <v>22</v>
       </c>
       <c r="E11" t="n">
-        <v>1.51591322079933</v>
+        <v>3.09890713403993</v>
       </c>
       <c r="F11" t="n">
-        <v>5.78244178318538</v>
+        <v>9.28871804547405</v>
       </c>
       <c r="G11" t="n">
-        <v>24.3093647962345</v>
+        <v>34.7776240905542</v>
       </c>
       <c r="H11" t="n">
-        <v>21.3235267304314</v>
+        <v>30.8313577384305</v>
       </c>
       <c r="I11" t="n">
-        <v>59.6238556030713</v>
+        <v>82.3636772500776</v>
       </c>
       <c r="J11" t="n">
-        <v>185.0986111163</v>
+        <v>234.552731104892</v>
       </c>
       <c r="K11" t="n">
-        <v>49.9493225001049</v>
+        <v>92.9663241604445</v>
       </c>
       <c r="L11" t="n">
-        <v>0.486680571016423</v>
+        <v>0.374088406792698</v>
       </c>
       <c r="M11" t="s">
         <v>17</v>
@@ -916,28 +916,28 @@
         <v>22</v>
       </c>
       <c r="E12" t="n">
-        <v>4.18696810548222</v>
+        <v>7.94470768553644</v>
       </c>
       <c r="F12" t="n">
-        <v>7.27809118971385</v>
+        <v>20.4675211222981</v>
       </c>
       <c r="G12" t="n">
-        <v>19.9797297562294</v>
+        <v>57.6371680277117</v>
       </c>
       <c r="H12" t="n">
-        <v>17.7613936084334</v>
+        <v>51.5320775021249</v>
       </c>
       <c r="I12" t="n">
-        <v>45.7191473676192</v>
+        <v>127.364562648516</v>
       </c>
       <c r="J12" t="n">
-        <v>105.48789123351</v>
+        <v>407.138571798427</v>
       </c>
       <c r="K12" t="n">
-        <v>49.9493225001049</v>
+        <v>92.9663241604445</v>
       </c>
       <c r="L12" t="n">
-        <v>0.400000015139093</v>
+        <v>0.619978992911879</v>
       </c>
       <c r="M12" t="s">
         <v>17</v>
@@ -957,28 +957,28 @@
         <v>22</v>
       </c>
       <c r="E13" t="n">
-        <v>1.04513980887023</v>
+        <v>0.0925631779588281</v>
       </c>
       <c r="F13" t="n">
-        <v>2.2325183148282</v>
+        <v>0.185411512275483</v>
       </c>
       <c r="G13" t="n">
-        <v>5.66022794764102</v>
+        <v>0.551532042178589</v>
       </c>
       <c r="H13" t="n">
-        <v>5.13490379931018</v>
+        <v>0.48090405232419</v>
       </c>
       <c r="I13" t="n">
-        <v>12.0739254577302</v>
+        <v>1.31108088380479</v>
       </c>
       <c r="J13" t="n">
-        <v>32.5630695450657</v>
+        <v>4.19212880214866</v>
       </c>
       <c r="K13" t="n">
-        <v>49.9493225001049</v>
+        <v>92.9663241604445</v>
       </c>
       <c r="L13" t="n">
-        <v>0.113319413844485</v>
+        <v>0.00593260029542242</v>
       </c>
       <c r="M13" t="s">
         <v>17</v>
@@ -998,28 +998,28 @@
         <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>0.129365257350591</v>
+        <v>0.587192250515534</v>
       </c>
       <c r="F14" t="n">
-        <v>0.606627803186471</v>
+        <v>1.27510728650804</v>
       </c>
       <c r="G14" t="n">
-        <v>2.2287574177104</v>
+        <v>4.03891756301732</v>
       </c>
       <c r="H14" t="n">
-        <v>1.95979577923768</v>
+        <v>3.67005880021712</v>
       </c>
       <c r="I14" t="n">
-        <v>5.45254826027295</v>
+        <v>8.9365188058429</v>
       </c>
       <c r="J14" t="n">
-        <v>13.0773748649964</v>
+        <v>21.1765185606762</v>
       </c>
       <c r="K14" t="n">
-        <v>4.13906727296547</v>
+        <v>6.56013552016912</v>
       </c>
       <c r="L14" t="n">
-        <v>0.538468517355986</v>
+        <v>0.615675933919304</v>
       </c>
       <c r="M14" t="s">
         <v>17</v>
@@ -1039,28 +1039,28 @@
         <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>0.153414277243866</v>
+        <v>0.316483183112249</v>
       </c>
       <c r="F15" t="n">
-        <v>0.303952100433841</v>
+        <v>0.805596182217462</v>
       </c>
       <c r="G15" t="n">
-        <v>0.696816783871199</v>
+        <v>2.08393126075638</v>
       </c>
       <c r="H15" t="n">
-        <v>0.62644221510576</v>
+        <v>1.88906571869131</v>
       </c>
       <c r="I15" t="n">
-        <v>1.5092905597552</v>
+        <v>4.51491477450707</v>
       </c>
       <c r="J15" t="n">
-        <v>3.16908871268211</v>
+        <v>12.5617687747501</v>
       </c>
       <c r="K15" t="n">
-        <v>4.13906727296547</v>
+        <v>6.56013552016912</v>
       </c>
       <c r="L15" t="n">
-        <v>0.168351161727303</v>
+        <v>0.31766588576552</v>
       </c>
       <c r="M15" t="s">
         <v>17</v>
@@ -1080,28 +1080,28 @@
         <v>23</v>
       </c>
       <c r="E16" t="n">
-        <v>0.191578987323574</v>
+        <v>0.0471164925402921</v>
       </c>
       <c r="F16" t="n">
-        <v>0.393104363667808</v>
+        <v>0.111797065614206</v>
       </c>
       <c r="G16" t="n">
-        <v>1.21349307138387</v>
+        <v>0.437286696395419</v>
       </c>
       <c r="H16" t="n">
-        <v>1.0568310026981</v>
+        <v>0.360118894838093</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8603804268228</v>
+        <v>1.2143093289787</v>
       </c>
       <c r="J16" t="n">
-        <v>7.16591118208625</v>
+        <v>3.74009509032166</v>
       </c>
       <c r="K16" t="n">
-        <v>4.13906727296547</v>
+        <v>6.56013552016912</v>
       </c>
       <c r="L16" t="n">
-        <v>0.29318032091671</v>
+        <v>0.0666581803151753</v>
       </c>
       <c r="M16" t="s">
         <v>17</v>
@@ -1121,28 +1121,28 @@
         <v>24</v>
       </c>
       <c r="E17" t="n">
-        <v>0.243810169778453</v>
+        <v>0.737262372484103</v>
       </c>
       <c r="F17" t="n">
-        <v>0.839164164342427</v>
+        <v>1.73661515238413</v>
       </c>
       <c r="G17" t="n">
-        <v>3.31002432141764</v>
+        <v>5.38165480249472</v>
       </c>
       <c r="H17" t="n">
-        <v>2.90815982061156</v>
+        <v>4.82968720702311</v>
       </c>
       <c r="I17" t="n">
-        <v>8.16480378789897</v>
+        <v>11.9666078802037</v>
       </c>
       <c r="J17" t="n">
-        <v>20.4372323668144</v>
+        <v>45.2102868000248</v>
       </c>
       <c r="K17" t="n">
-        <v>5.39021730985312</v>
+        <v>8.90516343303795</v>
       </c>
       <c r="L17" t="n">
-        <v>0.614079939850854</v>
+        <v>0.604329706350913</v>
       </c>
       <c r="M17" t="s">
         <v>17</v>
@@ -1162,28 +1162,28 @@
         <v>24</v>
       </c>
       <c r="E18" t="n">
-        <v>0.204717221697868</v>
+        <v>0.645008568351789</v>
       </c>
       <c r="F18" t="n">
-        <v>0.493087278836272</v>
+        <v>1.30476750005855</v>
       </c>
       <c r="G18" t="n">
-        <v>1.11807877816842</v>
+        <v>3.20259704783131</v>
       </c>
       <c r="H18" t="n">
-        <v>1.02430797726613</v>
+        <v>2.93487254545793</v>
       </c>
       <c r="I18" t="n">
-        <v>2.30465049725298</v>
+        <v>6.60611993872416</v>
       </c>
       <c r="J18" t="n">
-        <v>4.65981326164781</v>
+        <v>14.5475722746166</v>
       </c>
       <c r="K18" t="n">
-        <v>5.39021730985312</v>
+        <v>8.90516343303795</v>
       </c>
       <c r="L18" t="n">
-        <v>0.207427402996278</v>
+        <v>0.359633719460975</v>
       </c>
       <c r="M18" t="s">
         <v>17</v>
@@ -1203,28 +1203,28 @@
         <v>24</v>
       </c>
       <c r="E19" t="n">
-        <v>0.21584874754311</v>
+        <v>0.0407476766151235</v>
       </c>
       <c r="F19" t="n">
-        <v>0.391161492042017</v>
+        <v>0.108769555690368</v>
       </c>
       <c r="G19" t="n">
-        <v>0.962114210267065</v>
+        <v>0.32091158271193</v>
       </c>
       <c r="H19" t="n">
-        <v>0.853852244060294</v>
+        <v>0.283168742430714</v>
       </c>
       <c r="I19" t="n">
-        <v>2.20155924136608</v>
+        <v>0.755565068404437</v>
       </c>
       <c r="J19" t="n">
-        <v>5.1376096180102</v>
+        <v>1.82858236577505</v>
       </c>
       <c r="K19" t="n">
-        <v>5.39021730985312</v>
+        <v>8.90516343303795</v>
       </c>
       <c r="L19" t="n">
-        <v>0.178492657152868</v>
+        <v>0.0360365741881115</v>
       </c>
       <c r="M19" t="s">
         <v>17</v>
@@ -1244,28 +1244,28 @@
         <v>25</v>
       </c>
       <c r="E20" t="n">
-        <v>5.51926343296149</v>
+        <v>11.5839863346293</v>
       </c>
       <c r="F20" t="n">
-        <v>15.7181314017232</v>
+        <v>34.2892271992753</v>
       </c>
       <c r="G20" t="n">
-        <v>62.6289701530496</v>
+        <v>103.011457701133</v>
       </c>
       <c r="H20" t="n">
-        <v>55.0683301505356</v>
+        <v>93.660635417557</v>
       </c>
       <c r="I20" t="n">
-        <v>153.419233878511</v>
+        <v>225.373981361668</v>
       </c>
       <c r="J20" t="n">
-        <v>333.308906741706</v>
+        <v>619.131449636669</v>
       </c>
       <c r="K20" t="n">
-        <v>109.976969570647</v>
+        <v>185.39419212405</v>
       </c>
       <c r="L20" t="n">
-        <v>0.56947350338489</v>
+        <v>0.555634761374871</v>
       </c>
       <c r="M20" t="s">
         <v>17</v>
@@ -1285,28 +1285,28 @@
         <v>25</v>
       </c>
       <c r="E21" t="n">
-        <v>8.13649171848497</v>
+        <v>15.6683744272472</v>
       </c>
       <c r="F21" t="n">
-        <v>12.7594420073476</v>
+        <v>33.8031641928768</v>
       </c>
       <c r="G21" t="n">
-        <v>26.5248940304697</v>
+        <v>76.2745769352973</v>
       </c>
       <c r="H21" t="n">
-        <v>24.7978795622396</v>
+        <v>70.96126486838</v>
       </c>
       <c r="I21" t="n">
-        <v>50.5338283542505</v>
+        <v>150.180595568295</v>
       </c>
       <c r="J21" t="n">
-        <v>107.82158458723</v>
+        <v>334.360017645357</v>
       </c>
       <c r="K21" t="n">
-        <v>109.976969570647</v>
+        <v>185.39419212405</v>
       </c>
       <c r="L21" t="n">
-        <v>0.241185896774785</v>
+        <v>0.411418373258754</v>
       </c>
       <c r="M21" t="s">
         <v>17</v>
@@ -1326,28 +1326,28 @@
         <v>25</v>
       </c>
       <c r="E22" t="n">
-        <v>5.07317657184204</v>
+        <v>1.00310776825539</v>
       </c>
       <c r="F22" t="n">
-        <v>9.18937658725735</v>
+        <v>2.10648012125371</v>
       </c>
       <c r="G22" t="n">
-        <v>20.8231053871274</v>
+        <v>6.10815748761901</v>
       </c>
       <c r="H22" t="n">
-        <v>19.3317542872053</v>
+        <v>5.40089582681285</v>
       </c>
       <c r="I22" t="n">
-        <v>40.9741592096047</v>
+        <v>14.4403195196493</v>
       </c>
       <c r="J22" t="n">
-        <v>76.5533785453819</v>
+        <v>37.4688357026068</v>
       </c>
       <c r="K22" t="n">
-        <v>109.976969570647</v>
+        <v>185.39419212405</v>
       </c>
       <c r="L22" t="n">
-        <v>0.189340599840325</v>
+        <v>0.0329468653663755</v>
       </c>
       <c r="M22" t="s">
         <v>17</v>
@@ -1367,28 +1367,28 @@
         <v>26</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00872102170110465</v>
+        <v>0.0192498206205066</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0259153377094936</v>
+        <v>0.0512285719135253</v>
       </c>
       <c r="G23" t="n">
-        <v>0.100807495734583</v>
+        <v>0.163397834574768</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0888534194107507</v>
+        <v>0.147982879476975</v>
       </c>
       <c r="I23" t="n">
-        <v>0.244640006056124</v>
+        <v>0.362700602493682</v>
       </c>
       <c r="J23" t="n">
-        <v>0.598278791963229</v>
+        <v>1.12913403039066</v>
       </c>
       <c r="K23" t="n">
-        <v>0.184502187379284</v>
+        <v>0.33608643032231</v>
       </c>
       <c r="L23" t="n">
-        <v>0.54637561302919</v>
+        <v>0.48617801801182</v>
       </c>
       <c r="M23" t="s">
         <v>17</v>
@@ -1408,28 +1408,28 @@
         <v>26</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00793185967321964</v>
+        <v>0.0135896024530579</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0152888322387972</v>
+        <v>0.0467681446846812</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0487716240542733</v>
+        <v>0.16110290894438</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0403292851533925</v>
+        <v>0.138419011690501</v>
       </c>
       <c r="I24" t="n">
-        <v>0.132269778577808</v>
+        <v>0.406452248116863</v>
       </c>
       <c r="J24" t="n">
-        <v>0.314161151272524</v>
+        <v>0.87556225062238</v>
       </c>
       <c r="K24" t="n">
-        <v>0.184502187379284</v>
+        <v>0.33608643032231</v>
       </c>
       <c r="L24" t="n">
-        <v>0.264341711862813</v>
+        <v>0.479349638692286</v>
       </c>
       <c r="M24" t="s">
         <v>17</v>
@@ -1449,28 +1449,28 @@
         <v>26</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00621650090193741</v>
+        <v>0.00118282335236916</v>
       </c>
       <c r="F25" t="n">
-        <v>0.012762589973438</v>
+        <v>0.00361844997320529</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0349230675904277</v>
+        <v>0.0115856868031621</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0314745732739767</v>
+        <v>0.00995707292877167</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0761397945862771</v>
+        <v>0.0298740302942119</v>
       </c>
       <c r="J25" t="n">
-        <v>0.201450353653843</v>
+        <v>0.0891957902068791</v>
       </c>
       <c r="K25" t="n">
-        <v>0.184502187379284</v>
+        <v>0.33608643032231</v>
       </c>
       <c r="L25" t="n">
-        <v>0.189282675107997</v>
+        <v>0.0344723432958936</v>
       </c>
       <c r="M25" t="s">
         <v>17</v>
@@ -1490,28 +1490,28 @@
         <v>27</v>
       </c>
       <c r="E26" t="n">
-        <v>1.86923918055446</v>
+        <v>4.26649798503975</v>
       </c>
       <c r="F26" t="n">
-        <v>6.60724705478493</v>
+        <v>12.0187262779557</v>
       </c>
       <c r="G26" t="n">
-        <v>28.5687758630722</v>
+        <v>42.2462620135755</v>
       </c>
       <c r="H26" t="n">
-        <v>25.1798080825501</v>
+        <v>37.5425490115745</v>
       </c>
       <c r="I26" t="n">
-        <v>70.6939907645111</v>
+        <v>100.460633477657</v>
       </c>
       <c r="J26" t="n">
-        <v>206.581127503203</v>
+        <v>342.03476624524</v>
       </c>
       <c r="K26" t="n">
-        <v>42.9372441346065</v>
+        <v>72.7981226934644</v>
       </c>
       <c r="L26" t="n">
-        <v>0.665361190241047</v>
+        <v>0.580320761724372</v>
       </c>
       <c r="M26" t="s">
         <v>17</v>
@@ -1531,28 +1531,28 @@
         <v>27</v>
       </c>
       <c r="E27" t="n">
-        <v>1.42294238559352</v>
+        <v>4.39628712226956</v>
       </c>
       <c r="F27" t="n">
-        <v>3.61798169025557</v>
+        <v>9.97581268917254</v>
       </c>
       <c r="G27" t="n">
-        <v>9.04391217151543</v>
+        <v>27.0013894963876</v>
       </c>
       <c r="H27" t="n">
-        <v>8.18089229529873</v>
+        <v>24.1776406342893</v>
       </c>
       <c r="I27" t="n">
-        <v>19.8105237293263</v>
+        <v>60.7933225377175</v>
       </c>
       <c r="J27" t="n">
-        <v>46.107861628443</v>
+        <v>188.588533483386</v>
       </c>
       <c r="K27" t="n">
-        <v>42.9372441346065</v>
+        <v>72.7981226934644</v>
       </c>
       <c r="L27" t="n">
-        <v>0.210630941826707</v>
+        <v>0.370907772032584</v>
       </c>
       <c r="M27" t="s">
         <v>17</v>
@@ -1572,28 +1572,28 @@
         <v>27</v>
       </c>
       <c r="E28" t="n">
-        <v>1.35187562288018</v>
+        <v>0.348371565280823</v>
       </c>
       <c r="F28" t="n">
-        <v>2.40647397962615</v>
+        <v>0.850562756086513</v>
       </c>
       <c r="G28" t="n">
-        <v>5.3245561000189</v>
+        <v>3.55047118350124</v>
       </c>
       <c r="H28" t="n">
-        <v>4.93058947021592</v>
+        <v>2.85285567447922</v>
       </c>
       <c r="I28" t="n">
-        <v>10.5686435813594</v>
+        <v>10.074063279967</v>
       </c>
       <c r="J28" t="n">
-        <v>31.3174713177741</v>
+        <v>24.8473687524947</v>
       </c>
       <c r="K28" t="n">
-        <v>42.9372441346065</v>
+        <v>72.7981226934644</v>
       </c>
       <c r="L28" t="n">
-        <v>0.124007867932246</v>
+        <v>0.0487714662430435</v>
       </c>
       <c r="M28" t="s">
         <v>17</v>
@@ -1613,28 +1613,28 @@
         <v>16</v>
       </c>
       <c r="E29" t="n">
-        <v>1833.9972246051</v>
+        <v>20226.6728015455</v>
       </c>
       <c r="F29" t="n">
-        <v>10939.5112904046</v>
+        <v>36445.2608986991</v>
       </c>
       <c r="G29" t="n">
-        <v>25523.8415375821</v>
+        <v>72027.8110547414</v>
       </c>
       <c r="H29" t="n">
-        <v>23845.2537324689</v>
+        <v>68110.9870508976</v>
       </c>
       <c r="I29" t="n">
-        <v>49265.2542971955</v>
+        <v>130953.096143361</v>
       </c>
       <c r="J29" t="n">
-        <v>99702.4355794138</v>
+        <v>230011.758731049</v>
       </c>
       <c r="K29" t="n">
-        <v>72602.8387329154</v>
+        <v>109632.718183634</v>
       </c>
       <c r="L29" t="n">
-        <v>0.351554319128992</v>
+        <v>0.656991929490386</v>
       </c>
       <c r="M29" t="s">
         <v>17</v>
@@ -1654,28 +1654,28 @@
         <v>16</v>
       </c>
       <c r="E30" t="n">
-        <v>1378.02718344846</v>
+        <v>6221.24491181103</v>
       </c>
       <c r="F30" t="n">
-        <v>2339.78357337251</v>
+        <v>12627.1074194985</v>
       </c>
       <c r="G30" t="n">
-        <v>4322.89389149724</v>
+        <v>31300.8883505003</v>
       </c>
       <c r="H30" t="n">
-        <v>4097.5451673435</v>
+        <v>28708.3836964068</v>
       </c>
       <c r="I30" t="n">
-        <v>7667.8340546165</v>
+        <v>64217.8021768321</v>
       </c>
       <c r="J30" t="n">
-        <v>14973.7520689903</v>
+        <v>128377.918054312</v>
       </c>
       <c r="K30" t="n">
-        <v>72602.8387329154</v>
+        <v>109632.718183634</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0595416648569335</v>
+        <v>0.285506816478559</v>
       </c>
       <c r="M30" t="s">
         <v>17</v>
@@ -1695,28 +1695,28 @@
         <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>19201.0524226326</v>
+        <v>282.693753777517</v>
       </c>
       <c r="F31" t="n">
-        <v>27704.7268490638</v>
+        <v>1348.23310245164</v>
       </c>
       <c r="G31" t="n">
-        <v>42756.1033038361</v>
+        <v>6304.01877839222</v>
       </c>
       <c r="H31" t="n">
-        <v>41917.6954688038</v>
+        <v>5021.47640263776</v>
       </c>
       <c r="I31" t="n">
-        <v>62899.8669787849</v>
+        <v>18463.8270591297</v>
       </c>
       <c r="J31" t="n">
-        <v>89288.9699524989</v>
+        <v>55265.9171451548</v>
       </c>
       <c r="K31" t="n">
-        <v>72602.8387329154</v>
+        <v>109632.718183634</v>
       </c>
       <c r="L31" t="n">
-        <v>0.588904016014074</v>
+        <v>0.0575012540310552</v>
       </c>
       <c r="M31" t="s">
         <v>17</v>
@@ -1736,28 +1736,28 @@
         <v>20</v>
       </c>
       <c r="E32" t="n">
-        <v>242.937118100356</v>
+        <v>1900.00818884544</v>
       </c>
       <c r="F32" t="n">
-        <v>1334.93174978624</v>
+        <v>4030.49955636955</v>
       </c>
       <c r="G32" t="n">
-        <v>3229.29562205382</v>
+        <v>8223.58252576977</v>
       </c>
       <c r="H32" t="n">
-        <v>2991.39628558266</v>
+        <v>7710.60032672319</v>
       </c>
       <c r="I32" t="n">
-        <v>6501.73286122857</v>
+        <v>15275.891465178</v>
       </c>
       <c r="J32" t="n">
-        <v>12606.882692223</v>
+        <v>26113.1538812114</v>
       </c>
       <c r="K32" t="n">
-        <v>8989.67980945146</v>
+        <v>11627.4320163108</v>
       </c>
       <c r="L32" t="n">
-        <v>0.359222540791568</v>
+        <v>0.707256986257488</v>
       </c>
       <c r="M32" t="s">
         <v>17</v>
@@ -1777,28 +1777,28 @@
         <v>20</v>
       </c>
       <c r="E33" t="n">
-        <v>109.055672410561</v>
+        <v>493.544582585718</v>
       </c>
       <c r="F33" t="n">
-        <v>202.936336779937</v>
+        <v>1091.60387288115</v>
       </c>
       <c r="G33" t="n">
-        <v>376.136188413106</v>
+        <v>2743.63337549617</v>
       </c>
       <c r="H33" t="n">
-        <v>356.525831624318</v>
+        <v>2518.77372320388</v>
       </c>
       <c r="I33" t="n">
-        <v>663.20390945203</v>
+        <v>5667.61722122611</v>
       </c>
       <c r="J33" t="n">
-        <v>1471.75750383306</v>
+        <v>11405.4930546028</v>
       </c>
       <c r="K33" t="n">
-        <v>8989.67980945146</v>
+        <v>11627.4320163108</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0418408882614093</v>
+        <v>0.235962108541891</v>
       </c>
       <c r="M33" t="s">
         <v>17</v>
@@ -1818,28 +1818,28 @@
         <v>20</v>
       </c>
       <c r="E34" t="n">
-        <v>2169.90104464188</v>
+        <v>26.0061043954443</v>
       </c>
       <c r="F34" t="n">
-        <v>3257.09338394837</v>
+        <v>128.375467772468</v>
       </c>
       <c r="G34" t="n">
-        <v>5384.24799898454</v>
+        <v>660.21611504481</v>
       </c>
       <c r="H34" t="n">
-        <v>5229.37856477796</v>
+        <v>511.736659271085</v>
       </c>
       <c r="I34" t="n">
-        <v>8372.02360290906</v>
+        <v>2033.77844345819</v>
       </c>
       <c r="J34" t="n">
-        <v>12325.9272087131</v>
+        <v>7096.85897823526</v>
       </c>
       <c r="K34" t="n">
-        <v>8989.67980945146</v>
+        <v>11627.4320163108</v>
       </c>
       <c r="L34" t="n">
-        <v>0.598936570947022</v>
+        <v>0.0567809052006213</v>
       </c>
       <c r="M34" t="s">
         <v>17</v>
@@ -1859,28 +1859,28 @@
         <v>21</v>
       </c>
       <c r="E35" t="n">
-        <v>1.42573460464363</v>
+        <v>8.35552200050403</v>
       </c>
       <c r="F35" t="n">
-        <v>6.33803656908018</v>
+        <v>21.3965290776123</v>
       </c>
       <c r="G35" t="n">
-        <v>20.8309876992354</v>
+        <v>55.0473520308457</v>
       </c>
       <c r="H35" t="n">
-        <v>18.7527451342416</v>
+        <v>51.038673508104</v>
       </c>
       <c r="I35" t="n">
-        <v>47.5024018682133</v>
+        <v>112.958795736667</v>
       </c>
       <c r="J35" t="n">
-        <v>104.048916658654</v>
+        <v>237.335442189214</v>
       </c>
       <c r="K35" t="n">
-        <v>54.7652070848</v>
+        <v>77.2492739241422</v>
       </c>
       <c r="L35" t="n">
-        <v>0.380369011788454</v>
+        <v>0.712593779003043</v>
       </c>
       <c r="M35" t="s">
         <v>17</v>
@@ -1900,28 +1900,28 @@
         <v>21</v>
       </c>
       <c r="E36" t="n">
-        <v>0.473871958443119</v>
+        <v>1.73127146395646</v>
       </c>
       <c r="F36" t="n">
-        <v>0.906496661736256</v>
+        <v>4.76834903935571</v>
       </c>
       <c r="G36" t="n">
-        <v>2.74373528825468</v>
+        <v>19.5380677542503</v>
       </c>
       <c r="H36" t="n">
-        <v>2.28201029090451</v>
+        <v>15.1212895389697</v>
       </c>
       <c r="I36" t="n">
-        <v>7.10304887256855</v>
+        <v>60.6481476889949</v>
       </c>
       <c r="J36" t="n">
-        <v>16.0233342359836</v>
+        <v>168.282485683525</v>
       </c>
       <c r="K36" t="n">
-        <v>54.7652070848</v>
+        <v>77.2492739241422</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0500999710273387</v>
+        <v>0.252922348156132</v>
       </c>
       <c r="M36" t="s">
         <v>17</v>
@@ -1941,28 +1941,28 @@
         <v>21</v>
       </c>
       <c r="E37" t="n">
-        <v>9.14022181309656</v>
+        <v>0.153931032524107</v>
       </c>
       <c r="F37" t="n">
-        <v>15.7535133109257</v>
+        <v>0.522752852957649</v>
       </c>
       <c r="G37" t="n">
-        <v>31.1904840973099</v>
+        <v>2.66385413904625</v>
       </c>
       <c r="H37" t="n">
-        <v>29.7982480952893</v>
+        <v>2.08678319082367</v>
       </c>
       <c r="I37" t="n">
-        <v>54.4529924510039</v>
+        <v>8.18539714547642</v>
       </c>
       <c r="J37" t="n">
-        <v>96.5266005115867</v>
+        <v>25.5160016593288</v>
       </c>
       <c r="K37" t="n">
-        <v>54.7652070848</v>
+        <v>77.2492739241422</v>
       </c>
       <c r="L37" t="n">
-        <v>0.569531017184207</v>
+        <v>0.0344838728408259</v>
       </c>
       <c r="M37" t="s">
         <v>17</v>
@@ -1982,28 +1982,28 @@
         <v>22</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0915138717998519</v>
+        <v>0.936281326890123</v>
       </c>
       <c r="F38" t="n">
-        <v>0.388302869040905</v>
+        <v>2.82184615709978</v>
       </c>
       <c r="G38" t="n">
-        <v>1.21716644683402</v>
+        <v>8.78593699666615</v>
       </c>
       <c r="H38" t="n">
-        <v>1.06105555851873</v>
+        <v>7.98834029722014</v>
       </c>
       <c r="I38" t="n">
-        <v>2.97801298002335</v>
+        <v>19.2068469575164</v>
       </c>
       <c r="J38" t="n">
-        <v>12.643902806589</v>
+        <v>75.4018914630803</v>
       </c>
       <c r="K38" t="n">
-        <v>5.7666566058659</v>
+        <v>24.8630938167296</v>
       </c>
       <c r="L38" t="n">
-        <v>0.211069694282803</v>
+        <v>0.35337263582034</v>
       </c>
       <c r="M38" t="s">
         <v>17</v>
@@ -2023,28 +2023,28 @@
         <v>22</v>
       </c>
       <c r="E39" t="n">
-        <v>0.532568373492503</v>
+        <v>2.1097513429533</v>
       </c>
       <c r="F39" t="n">
-        <v>1.03171161268866</v>
+        <v>5.25920472132413</v>
       </c>
       <c r="G39" t="n">
-        <v>2.33696856754407</v>
+        <v>15.7828743631769</v>
       </c>
       <c r="H39" t="n">
-        <v>2.1417493907169</v>
+        <v>13.7947738694034</v>
       </c>
       <c r="I39" t="n">
-        <v>4.68558068523006</v>
+        <v>37.5383669052103</v>
       </c>
       <c r="J39" t="n">
-        <v>11.203621055053</v>
+        <v>79.3990026687811</v>
       </c>
       <c r="K39" t="n">
-        <v>5.7666566058659</v>
+        <v>24.8630938167296</v>
       </c>
       <c r="L39" t="n">
-        <v>0.405255371919819</v>
+        <v>0.634791248406788</v>
       </c>
       <c r="M39" t="s">
         <v>17</v>
@@ -2064,28 +2064,28 @@
         <v>22</v>
       </c>
       <c r="E40" t="n">
-        <v>0.730647530113912</v>
+        <v>0.0133492983087749</v>
       </c>
       <c r="F40" t="n">
-        <v>1.20295772450213</v>
+        <v>0.0568855837671703</v>
       </c>
       <c r="G40" t="n">
-        <v>2.21252159148781</v>
+        <v>0.294282456886585</v>
       </c>
       <c r="H40" t="n">
-        <v>2.09400831431796</v>
+        <v>0.225401762666181</v>
       </c>
       <c r="I40" t="n">
-        <v>3.91178290576803</v>
+        <v>0.917752987424922</v>
       </c>
       <c r="J40" t="n">
-        <v>7.45171981055594</v>
+        <v>3.91698468446754</v>
       </c>
       <c r="K40" t="n">
-        <v>5.7666566058659</v>
+        <v>24.8630938167296</v>
       </c>
       <c r="L40" t="n">
-        <v>0.383674933797378</v>
+        <v>0.0118361157728718</v>
       </c>
       <c r="M40" t="s">
         <v>17</v>
@@ -2105,28 +2105,28 @@
         <v>23</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0272116381929811</v>
+        <v>0.181016821229249</v>
       </c>
       <c r="F41" t="n">
-        <v>0.137458242828243</v>
+        <v>0.547587042419786</v>
       </c>
       <c r="G41" t="n">
-        <v>0.887978376594552</v>
+        <v>2.01383877988226</v>
       </c>
       <c r="H41" t="n">
-        <v>0.680976748733618</v>
+        <v>1.68759038006516</v>
       </c>
       <c r="I41" t="n">
-        <v>2.68047429766662</v>
+        <v>5.28608673609628</v>
       </c>
       <c r="J41" t="n">
-        <v>6.3330583885319</v>
+        <v>14.4929140304583</v>
       </c>
       <c r="K41" t="n">
-        <v>2.43316681295445</v>
+        <v>2.76176169476177</v>
       </c>
       <c r="L41" t="n">
-        <v>0.364947594988908</v>
+        <v>0.72918629572635</v>
       </c>
       <c r="M41" t="s">
         <v>17</v>
@@ -2146,28 +2146,28 @@
         <v>23</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0209785667459499</v>
+        <v>0.102466483556536</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0398162749642096</v>
+        <v>0.209410870311323</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0860115038000885</v>
+        <v>0.59454882536393</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0794925680418175</v>
+        <v>0.523901607972199</v>
       </c>
       <c r="I42" t="n">
-        <v>0.168526991016872</v>
+        <v>1.39894702561226</v>
       </c>
       <c r="J42" t="n">
-        <v>0.388225266882341</v>
+        <v>3.00606458458655</v>
       </c>
       <c r="K42" t="n">
-        <v>2.43316681295445</v>
+        <v>2.76176169476177</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0353496124236751</v>
+        <v>0.215278829629512</v>
       </c>
       <c r="M42" t="s">
         <v>17</v>
@@ -2187,28 +2187,28 @@
         <v>23</v>
       </c>
       <c r="E43" t="n">
-        <v>0.242876794546294</v>
+        <v>0.00738244266560109</v>
       </c>
       <c r="F43" t="n">
-        <v>0.556941042767339</v>
+        <v>0.0219335339947498</v>
       </c>
       <c r="G43" t="n">
-        <v>1.45917693255981</v>
+        <v>0.153374089515578</v>
       </c>
       <c r="H43" t="n">
-        <v>1.31284082203174</v>
+        <v>0.109699819295247</v>
       </c>
       <c r="I43" t="n">
-        <v>3.07751987784068</v>
+        <v>0.54016027154362</v>
       </c>
       <c r="J43" t="n">
-        <v>5.45447979988605</v>
+        <v>2.13874174096797</v>
       </c>
       <c r="K43" t="n">
-        <v>2.43316681295445</v>
+        <v>2.76176169476177</v>
       </c>
       <c r="L43" t="n">
-        <v>0.599702792587417</v>
+        <v>0.0555348746441383</v>
       </c>
       <c r="M43" t="s">
         <v>17</v>
@@ -2228,28 +2228,28 @@
         <v>24</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0592516279268513</v>
+        <v>0.315520904455785</v>
       </c>
       <c r="F44" t="n">
-        <v>0.20890439352135</v>
+        <v>0.781894467581296</v>
       </c>
       <c r="G44" t="n">
-        <v>0.770910449336563</v>
+        <v>2.13354912395895</v>
       </c>
       <c r="H44" t="n">
-        <v>0.638153790864921</v>
+        <v>1.91790634459177</v>
       </c>
       <c r="I44" t="n">
-        <v>2.12608634253561</v>
+        <v>4.66180407997719</v>
       </c>
       <c r="J44" t="n">
-        <v>6.43285001627765</v>
+        <v>12.5598404320148</v>
       </c>
       <c r="K44" t="n">
-        <v>2.05165970771063</v>
+        <v>3.14931007223196</v>
       </c>
       <c r="L44" t="n">
-        <v>0.375749665716638</v>
+        <v>0.677465563893135</v>
       </c>
       <c r="M44" t="s">
         <v>17</v>
@@ -2269,28 +2269,28 @@
         <v>24</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0323767493785898</v>
+        <v>0.158118088844387</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0595181953023992</v>
+        <v>0.325259208182205</v>
       </c>
       <c r="G45" t="n">
-        <v>0.123006209993833</v>
+        <v>0.875318909316628</v>
       </c>
       <c r="H45" t="n">
-        <v>0.115308843965431</v>
+        <v>0.785597460469518</v>
       </c>
       <c r="I45" t="n">
-        <v>0.233132804034115</v>
+        <v>1.92804516162622</v>
       </c>
       <c r="J45" t="n">
-        <v>0.479801852495671</v>
+        <v>4.47622029274471</v>
       </c>
       <c r="K45" t="n">
-        <v>2.05165970771063</v>
+        <v>3.14931007223196</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0599544893003195</v>
+        <v>0.277939894529432</v>
       </c>
       <c r="M45" t="s">
         <v>17</v>
@@ -2310,28 +2310,28 @@
         <v>24</v>
       </c>
       <c r="E46" t="n">
-        <v>0.364570440206111</v>
+        <v>0.00599470877827365</v>
       </c>
       <c r="F46" t="n">
-        <v>0.582881504080713</v>
+        <v>0.0275224889614463</v>
       </c>
       <c r="G46" t="n">
-        <v>1.15774304838023</v>
+        <v>0.140442038956378</v>
       </c>
       <c r="H46" t="n">
-        <v>1.05920419688264</v>
+        <v>0.110430690833284</v>
       </c>
       <c r="I46" t="n">
-        <v>2.31734358924616</v>
+        <v>0.436009564453251</v>
       </c>
       <c r="J46" t="n">
-        <v>4.05920564137116</v>
+        <v>1.60468426394375</v>
       </c>
       <c r="K46" t="n">
-        <v>2.05165970771063</v>
+        <v>3.14931007223196</v>
       </c>
       <c r="L46" t="n">
-        <v>0.564295844983042</v>
+        <v>0.0445945415774333</v>
       </c>
       <c r="M46" t="s">
         <v>17</v>
@@ -2351,28 +2351,28 @@
         <v>25</v>
       </c>
       <c r="E47" t="n">
-        <v>0.999655960426012</v>
+        <v>6.39141539829279</v>
       </c>
       <c r="F47" t="n">
-        <v>4.69008913602796</v>
+        <v>16.7484644810703</v>
       </c>
       <c r="G47" t="n">
-        <v>15.5928265753228</v>
+        <v>42.0179715830034</v>
       </c>
       <c r="H47" t="n">
-        <v>13.7815178024498</v>
+        <v>38.853516547982</v>
       </c>
       <c r="I47" t="n">
-        <v>36.4096973300956</v>
+        <v>86.9019746981263</v>
       </c>
       <c r="J47" t="n">
-        <v>69.2589257054728</v>
+        <v>181.963199070562</v>
       </c>
       <c r="K47" t="n">
-        <v>40.9266705503669</v>
+        <v>65.2840660646109</v>
       </c>
       <c r="L47" t="n">
-        <v>0.380994260359717</v>
+        <v>0.643617564221852</v>
       </c>
       <c r="M47" t="s">
         <v>17</v>
@@ -2392,28 +2392,28 @@
         <v>25</v>
       </c>
       <c r="E48" t="n">
-        <v>0.871251060902835</v>
+        <v>4.14055860337006</v>
       </c>
       <c r="F48" t="n">
-        <v>1.57608363332891</v>
+        <v>8.34472827447249</v>
       </c>
       <c r="G48" t="n">
-        <v>2.99252595383701</v>
+        <v>20.889176656606</v>
       </c>
       <c r="H48" t="n">
-        <v>2.83908621805059</v>
+        <v>19.136421137277</v>
       </c>
       <c r="I48" t="n">
-        <v>5.3894569651022</v>
+        <v>43.1638067601502</v>
       </c>
       <c r="J48" t="n">
-        <v>9.22056031592416</v>
+        <v>89.5661452987742</v>
       </c>
       <c r="K48" t="n">
-        <v>40.9266705503669</v>
+        <v>65.2840660646109</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0731192133050312</v>
+        <v>0.319973584916298</v>
       </c>
       <c r="M48" t="s">
         <v>17</v>
@@ -2433,28 +2433,28 @@
         <v>25</v>
       </c>
       <c r="E49" t="n">
-        <v>7.91158353775744</v>
+        <v>0.130526545585815</v>
       </c>
       <c r="F49" t="n">
-        <v>11.7478369047042</v>
+        <v>0.496427813789741</v>
       </c>
       <c r="G49" t="n">
-        <v>22.341318021207</v>
+        <v>2.37691782500157</v>
       </c>
       <c r="H49" t="n">
-        <v>21.2568297833758</v>
+        <v>1.88185932073075</v>
       </c>
       <c r="I49" t="n">
-        <v>39.3220426665407</v>
+        <v>7.1538332644113</v>
       </c>
       <c r="J49" t="n">
-        <v>77.0729740562191</v>
+        <v>20.6270111025026</v>
       </c>
       <c r="K49" t="n">
-        <v>40.9266705503669</v>
+        <v>65.2840660646109</v>
       </c>
       <c r="L49" t="n">
-        <v>0.545886526335251</v>
+        <v>0.0364088508618498</v>
       </c>
       <c r="M49" t="s">
         <v>17</v>
@@ -2474,28 +2474,28 @@
         <v>26</v>
       </c>
       <c r="E50" t="n">
-        <v>0.00143884486117885</v>
+        <v>0.00978736757968176</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00551851024996745</v>
+        <v>0.0228833743736855</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0224532929906544</v>
+        <v>0.0634580933355305</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0189633417465717</v>
+        <v>0.0574858379771684</v>
       </c>
       <c r="I50" t="n">
-        <v>0.060840542128592</v>
+        <v>0.138600958598226</v>
       </c>
       <c r="J50" t="n">
-        <v>0.172409794023171</v>
+        <v>0.308307343790889</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0685609524692209</v>
+        <v>0.117306557729303</v>
       </c>
       <c r="L50" t="n">
-        <v>0.327493889480815</v>
+        <v>0.540959470330438</v>
       </c>
       <c r="M50" t="s">
         <v>17</v>
@@ -2515,28 +2515,28 @@
         <v>26</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0013936932904714</v>
+        <v>0.00538196461909998</v>
       </c>
       <c r="F51" t="n">
-        <v>0.00281766918870271</v>
+        <v>0.0134381461643416</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00812671918679765</v>
+        <v>0.04948122127324</v>
       </c>
       <c r="H51" t="n">
-        <v>0.00719973671378439</v>
+        <v>0.0416097087520696</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0185514678302715</v>
+        <v>0.132718737699118</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0447186370625334</v>
+        <v>0.297537437370015</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0685609524692209</v>
+        <v>0.117306557729303</v>
       </c>
       <c r="L51" t="n">
-        <v>0.118532763827136</v>
+        <v>0.42181121184566</v>
       </c>
       <c r="M51" t="s">
         <v>17</v>
@@ -2556,28 +2556,28 @@
         <v>26</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0103860994481277</v>
+        <v>0.000181337771700954</v>
       </c>
       <c r="F52" t="n">
-        <v>0.018280241804221</v>
+        <v>0.00084055407634738</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0379809402917688</v>
+        <v>0.00436724312053221</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0353493036760269</v>
+        <v>0.00332893394544846</v>
       </c>
       <c r="I52" t="n">
-        <v>0.0734405140307679</v>
+        <v>0.0135532903214902</v>
       </c>
       <c r="J52" t="n">
-        <v>0.125283697563146</v>
+        <v>0.055357928103214</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0685609524692209</v>
+        <v>0.117306557729303</v>
       </c>
       <c r="L52" t="n">
-        <v>0.553973346692049</v>
+        <v>0.0372293178239028</v>
       </c>
       <c r="M52" t="s">
         <v>17</v>
@@ -2597,28 +2597,28 @@
         <v>27</v>
       </c>
       <c r="E53" t="n">
-        <v>0.144652685517423</v>
+        <v>1.54857325441624</v>
       </c>
       <c r="F53" t="n">
-        <v>0.908753131160276</v>
+        <v>4.30622804794742</v>
       </c>
       <c r="G53" t="n">
-        <v>2.80791154514978</v>
+        <v>12.329468528751</v>
       </c>
       <c r="H53" t="n">
-        <v>2.42645957353023</v>
+        <v>11.3433111315058</v>
       </c>
       <c r="I53" t="n">
-        <v>7.41075547988746</v>
+        <v>26.194290018302</v>
       </c>
       <c r="J53" t="n">
-        <v>21.3385402697675</v>
+        <v>59.9167101478629</v>
       </c>
       <c r="K53" t="n">
-        <v>12.6934794065257</v>
+        <v>22.0296809285362</v>
       </c>
       <c r="L53" t="n">
-        <v>0.221208973144609</v>
+        <v>0.55967531117439</v>
       </c>
       <c r="M53" t="s">
         <v>17</v>
@@ -2638,28 +2638,28 @@
         <v>27</v>
       </c>
       <c r="E54" t="n">
-        <v>0.229438226303559</v>
+        <v>1.07488022874132</v>
       </c>
       <c r="F54" t="n">
-        <v>0.464103773627472</v>
+        <v>2.47476505877617</v>
       </c>
       <c r="G54" t="n">
-        <v>1.14222289081269</v>
+        <v>7.62580673564281</v>
       </c>
       <c r="H54" t="n">
-        <v>1.02481497404547</v>
+        <v>6.68791114938538</v>
       </c>
       <c r="I54" t="n">
-        <v>2.48565842899028</v>
+        <v>18.2635803186816</v>
       </c>
       <c r="J54" t="n">
-        <v>4.57137303562461</v>
+        <v>43.5301711693472</v>
       </c>
       <c r="K54" t="n">
-        <v>12.6934794065257</v>
+        <v>22.0296809285362</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0899850115347792</v>
+        <v>0.346160562215166</v>
       </c>
       <c r="M54" t="s">
         <v>17</v>
@@ -2679,28 +2679,28 @@
         <v>27</v>
       </c>
       <c r="E55" t="n">
-        <v>1.82244564886408</v>
+        <v>0.0661776959871535</v>
       </c>
       <c r="F55" t="n">
-        <v>3.56506700636163</v>
+        <v>0.24384497744814</v>
       </c>
       <c r="G55" t="n">
-        <v>8.74334497056319</v>
+        <v>2.07440566414234</v>
       </c>
       <c r="H55" t="n">
-        <v>7.71173506359619</v>
+        <v>1.34844805863833</v>
       </c>
       <c r="I55" t="n">
-        <v>18.7453158285</v>
+        <v>8.29622697253453</v>
       </c>
       <c r="J55" t="n">
-        <v>32.1678415398826</v>
+        <v>35.3567404017832</v>
       </c>
       <c r="K55" t="n">
-        <v>12.6934794065257</v>
+        <v>22.0296809285362</v>
       </c>
       <c r="L55" t="n">
-        <v>0.688806015320612</v>
+        <v>0.0941641266104431</v>
       </c>
       <c r="M55" t="s">
         <v>17</v>
@@ -2720,28 +2720,28 @@
         <v>16</v>
       </c>
       <c r="E56" t="n">
-        <v>37485.8850021217</v>
+        <v>16901.3286576178</v>
       </c>
       <c r="F56" t="n">
-        <v>82521.8325764481</v>
+        <v>40942.4701175864</v>
       </c>
       <c r="G56" t="n">
-        <v>185742.415412402</v>
+        <v>115008.04067282</v>
       </c>
       <c r="H56" t="n">
-        <v>172220.247001479</v>
+        <v>104658.277264856</v>
       </c>
       <c r="I56" t="n">
-        <v>370535.116298305</v>
+        <v>250974.206737793</v>
       </c>
       <c r="J56" t="n">
-        <v>1162080.78676884</v>
+        <v>648712.650075603</v>
       </c>
       <c r="K56" t="n">
-        <v>315157.391143707</v>
+        <v>190587.844116008</v>
       </c>
       <c r="L56" t="n">
-        <v>0.589363983304793</v>
+        <v>0.603438488987871</v>
       </c>
       <c r="M56" t="s">
         <v>17</v>
@@ -2761,28 +2761,28 @@
         <v>16</v>
       </c>
       <c r="E57" t="n">
-        <v>22585.4438934668</v>
+        <v>12930.8539166195</v>
       </c>
       <c r="F57" t="n">
-        <v>52658.2341291492</v>
+        <v>20360.1418391378</v>
       </c>
       <c r="G57" t="n">
-        <v>116427.92877195</v>
+        <v>41327.0179412038</v>
       </c>
       <c r="H57" t="n">
-        <v>108612.704061631</v>
+        <v>38609.8247436038</v>
       </c>
       <c r="I57" t="n">
-        <v>226796.145778592</v>
+        <v>78329.2250881021</v>
       </c>
       <c r="J57" t="n">
-        <v>486790.83614605</v>
+        <v>142740.022550705</v>
       </c>
       <c r="K57" t="n">
-        <v>315157.391143707</v>
+        <v>190587.844116008</v>
       </c>
       <c r="L57" t="n">
-        <v>0.369427886014137</v>
+        <v>0.216839736725542</v>
       </c>
       <c r="M57" t="s">
         <v>17</v>
@@ -2802,28 +2802,28 @@
         <v>16</v>
       </c>
       <c r="E58" t="n">
-        <v>2356.8141208799</v>
+        <v>9277.57419635958</v>
       </c>
       <c r="F58" t="n">
-        <v>4695.55129349055</v>
+        <v>17846.5193707543</v>
       </c>
       <c r="G58" t="n">
-        <v>12987.0469593547</v>
+        <v>34252.7855019843</v>
       </c>
       <c r="H58" t="n">
-        <v>11653.0741574609</v>
+        <v>32619.7433299421</v>
       </c>
       <c r="I58" t="n">
-        <v>29171.2957385752</v>
+        <v>59842.7100761047</v>
       </c>
       <c r="J58" t="n">
-        <v>63541.9634823214</v>
+        <v>133407.555966138</v>
       </c>
       <c r="K58" t="n">
-        <v>315157.391143707</v>
+        <v>190587.844116008</v>
       </c>
       <c r="L58" t="n">
-        <v>0.0412081306810693</v>
+        <v>0.179721774286587</v>
       </c>
       <c r="M58" t="s">
         <v>17</v>
@@ -2843,28 +2843,28 @@
         <v>20</v>
       </c>
       <c r="E59" t="n">
-        <v>4497.78767922878</v>
+        <v>1517.80992042517</v>
       </c>
       <c r="F59" t="n">
-        <v>8571.49207625289</v>
+        <v>4034.45480435485</v>
       </c>
       <c r="G59" t="n">
-        <v>19121.4791014892</v>
+        <v>11350.4484034091</v>
       </c>
       <c r="H59" t="n">
-        <v>17809.4247063026</v>
+        <v>10332.1577364619</v>
       </c>
       <c r="I59" t="n">
-        <v>37342.7963180421</v>
+        <v>24890.1820481969</v>
       </c>
       <c r="J59" t="n">
-        <v>95912.8846540229</v>
+        <v>72676.569904901</v>
       </c>
       <c r="K59" t="n">
-        <v>30988.0410033223</v>
+        <v>19091.7805259841</v>
       </c>
       <c r="L59" t="n">
-        <v>0.617059952238968</v>
+        <v>0.594520159498013</v>
       </c>
       <c r="M59" t="s">
         <v>17</v>
@@ -2884,28 +2884,28 @@
         <v>20</v>
       </c>
       <c r="E60" t="n">
-        <v>1978.91023693746</v>
+        <v>950.549415310775</v>
       </c>
       <c r="F60" t="n">
-        <v>4521.17293686401</v>
+        <v>1742.4676748416</v>
       </c>
       <c r="G60" t="n">
-        <v>10136.7650762886</v>
+        <v>3577.22961736678</v>
       </c>
       <c r="H60" t="n">
-        <v>9437.69648415862</v>
+        <v>3335.46814772499</v>
       </c>
       <c r="I60" t="n">
-        <v>19662.6705095946</v>
+        <v>6746.69198814801</v>
       </c>
       <c r="J60" t="n">
-        <v>40309.2977873247</v>
+        <v>13762.790464702</v>
       </c>
       <c r="K60" t="n">
-        <v>30988.0410033223</v>
+        <v>19091.7805259841</v>
       </c>
       <c r="L60" t="n">
-        <v>0.327118615700869</v>
+        <v>0.18737014143328</v>
       </c>
       <c r="M60" t="s">
         <v>17</v>
@@ -2925,28 +2925,28 @@
         <v>20</v>
       </c>
       <c r="E61" t="n">
-        <v>250.254987309596</v>
+        <v>1136.62571402095</v>
       </c>
       <c r="F61" t="n">
-        <v>568.523618451195</v>
+        <v>2094.6850606672</v>
       </c>
       <c r="G61" t="n">
-        <v>1729.7968255445</v>
+        <v>4164.10250520819</v>
       </c>
       <c r="H61" t="n">
-        <v>1497.23091928841</v>
+        <v>3944.3054155585</v>
       </c>
       <c r="I61" t="n">
-        <v>4267.08195729896</v>
+        <v>7519.69966786055</v>
       </c>
       <c r="J61" t="n">
-        <v>12431.2545534793</v>
+        <v>14250.9892109111</v>
       </c>
       <c r="K61" t="n">
-        <v>30988.0410033223</v>
+        <v>19091.7805259841</v>
       </c>
       <c r="L61" t="n">
-        <v>0.055821432060163</v>
+        <v>0.218109699068707</v>
       </c>
       <c r="M61" t="s">
         <v>17</v>
@@ -2966,28 +2966,28 @@
         <v>21</v>
       </c>
       <c r="E62" t="n">
-        <v>17.7810446927995</v>
+        <v>5.41224095830597</v>
       </c>
       <c r="F62" t="n">
-        <v>45.4823334279642</v>
+        <v>20.1714544381016</v>
       </c>
       <c r="G62" t="n">
-        <v>132.140007100245</v>
+        <v>79.6092497950228</v>
       </c>
       <c r="H62" t="n">
-        <v>120.079805374567</v>
+        <v>70.1768001444611</v>
       </c>
       <c r="I62" t="n">
-        <v>288.984109282236</v>
+        <v>194.184988908031</v>
       </c>
       <c r="J62" t="n">
-        <v>668.009249130249</v>
+        <v>461.750668690582</v>
       </c>
       <c r="K62" t="n">
-        <v>212.163381607669</v>
+        <v>134.744724504121</v>
       </c>
       <c r="L62" t="n">
-        <v>0.622821931376441</v>
+        <v>0.590815336837831</v>
       </c>
       <c r="M62" t="s">
         <v>17</v>
@@ -3007,28 +3007,28 @@
         <v>21</v>
       </c>
       <c r="E63" t="n">
-        <v>5.94351515482316</v>
+        <v>2.92604611993333</v>
       </c>
       <c r="F63" t="n">
-        <v>18.3731605826389</v>
+        <v>6.33012491731484</v>
       </c>
       <c r="G63" t="n">
-        <v>71.4255517783051</v>
+        <v>24.9622903334982</v>
       </c>
       <c r="H63" t="n">
-        <v>56.5080789226577</v>
+        <v>18.8780863310735</v>
       </c>
       <c r="I63" t="n">
-        <v>209.468631393121</v>
+        <v>77.7177834972177</v>
       </c>
       <c r="J63" t="n">
-        <v>538.623157325886</v>
+        <v>196.304273970165</v>
       </c>
       <c r="K63" t="n">
-        <v>212.163381607669</v>
+        <v>134.744724504121</v>
       </c>
       <c r="L63" t="n">
-        <v>0.336653531995379</v>
+        <v>0.185256160679855</v>
       </c>
       <c r="M63" t="s">
         <v>17</v>
@@ -3048,28 +3048,28 @@
         <v>21</v>
       </c>
       <c r="E64" t="n">
-        <v>0.930778448813074</v>
+        <v>5.90056509257507</v>
       </c>
       <c r="F64" t="n">
-        <v>2.42313655028105</v>
+        <v>12.0210339466061</v>
       </c>
       <c r="G64" t="n">
-        <v>8.59782272911849</v>
+        <v>30.1731843755997</v>
       </c>
       <c r="H64" t="n">
-        <v>7.12793429702034</v>
+        <v>27.7943508232212</v>
       </c>
       <c r="I64" t="n">
-        <v>23.8309439610768</v>
+        <v>61.6113024335281</v>
       </c>
       <c r="J64" t="n">
-        <v>90.6976707327598</v>
+        <v>118.644690862391</v>
       </c>
       <c r="K64" t="n">
-        <v>212.163381607669</v>
+        <v>134.744724504121</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0405245366281799</v>
+        <v>0.223928502482314</v>
       </c>
       <c r="M64" t="s">
         <v>17</v>
@@ -3089,28 +3089,28 @@
         <v>22</v>
       </c>
       <c r="E65" t="n">
-        <v>3.09890713403993</v>
+        <v>1.51591322079933</v>
       </c>
       <c r="F65" t="n">
-        <v>9.28871804547405</v>
+        <v>5.78244178318538</v>
       </c>
       <c r="G65" t="n">
-        <v>34.7776240905542</v>
+        <v>24.3093647962345</v>
       </c>
       <c r="H65" t="n">
-        <v>30.8313577384305</v>
+        <v>21.3235267304314</v>
       </c>
       <c r="I65" t="n">
-        <v>82.3636772500776</v>
+        <v>59.6238556030713</v>
       </c>
       <c r="J65" t="n">
-        <v>234.552731104892</v>
+        <v>185.0986111163</v>
       </c>
       <c r="K65" t="n">
-        <v>92.9663241604445</v>
+        <v>49.9493225001049</v>
       </c>
       <c r="L65" t="n">
-        <v>0.374088406792698</v>
+        <v>0.486680571016423</v>
       </c>
       <c r="M65" t="s">
         <v>17</v>
@@ -3130,28 +3130,28 @@
         <v>22</v>
       </c>
       <c r="E66" t="n">
-        <v>7.94470768553644</v>
+        <v>4.18696810548222</v>
       </c>
       <c r="F66" t="n">
-        <v>20.4675211222981</v>
+        <v>7.27809118971385</v>
       </c>
       <c r="G66" t="n">
-        <v>57.6371680277117</v>
+        <v>19.9797297562294</v>
       </c>
       <c r="H66" t="n">
-        <v>51.5320775021249</v>
+        <v>17.7613936084334</v>
       </c>
       <c r="I66" t="n">
-        <v>127.364562648516</v>
+        <v>45.7191473676192</v>
       </c>
       <c r="J66" t="n">
-        <v>407.138571798427</v>
+        <v>105.48789123351</v>
       </c>
       <c r="K66" t="n">
-        <v>92.9663241604445</v>
+        <v>49.9493225001049</v>
       </c>
       <c r="L66" t="n">
-        <v>0.619978992911879</v>
+        <v>0.400000015139093</v>
       </c>
       <c r="M66" t="s">
         <v>17</v>
@@ -3171,28 +3171,28 @@
         <v>22</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0925631779588281</v>
+        <v>1.04513980887023</v>
       </c>
       <c r="F67" t="n">
-        <v>0.185411512275483</v>
+        <v>2.2325183148282</v>
       </c>
       <c r="G67" t="n">
-        <v>0.551532042178589</v>
+        <v>5.66022794764102</v>
       </c>
       <c r="H67" t="n">
-        <v>0.48090405232419</v>
+        <v>5.13490379931018</v>
       </c>
       <c r="I67" t="n">
-        <v>1.31108088380479</v>
+        <v>12.0739254577302</v>
       </c>
       <c r="J67" t="n">
-        <v>4.19212880214866</v>
+        <v>32.5630695450657</v>
       </c>
       <c r="K67" t="n">
-        <v>92.9663241604445</v>
+        <v>49.9493225001049</v>
       </c>
       <c r="L67" t="n">
-        <v>0.00593260029542242</v>
+        <v>0.113319413844485</v>
       </c>
       <c r="M67" t="s">
         <v>17</v>
@@ -3212,28 +3212,28 @@
         <v>23</v>
       </c>
       <c r="E68" t="n">
-        <v>0.587192250515534</v>
+        <v>0.129365257350591</v>
       </c>
       <c r="F68" t="n">
-        <v>1.27510728650804</v>
+        <v>0.606627803186471</v>
       </c>
       <c r="G68" t="n">
-        <v>4.03891756301732</v>
+        <v>2.2287574177104</v>
       </c>
       <c r="H68" t="n">
-        <v>3.67005880021712</v>
+        <v>1.95979577923768</v>
       </c>
       <c r="I68" t="n">
-        <v>8.9365188058429</v>
+        <v>5.45254826027295</v>
       </c>
       <c r="J68" t="n">
-        <v>21.1765185606762</v>
+        <v>13.0773748649964</v>
       </c>
       <c r="K68" t="n">
-        <v>6.56013552016912</v>
+        <v>4.13906727296547</v>
       </c>
       <c r="L68" t="n">
-        <v>0.615675933919304</v>
+        <v>0.538468517355986</v>
       </c>
       <c r="M68" t="s">
         <v>17</v>
@@ -3253,28 +3253,28 @@
         <v>23</v>
       </c>
       <c r="E69" t="n">
-        <v>0.316483183112249</v>
+        <v>0.153414277243866</v>
       </c>
       <c r="F69" t="n">
-        <v>0.805596182217462</v>
+        <v>0.303952100433841</v>
       </c>
       <c r="G69" t="n">
-        <v>2.08393126075638</v>
+        <v>0.696816783871199</v>
       </c>
       <c r="H69" t="n">
-        <v>1.88906571869131</v>
+        <v>0.62644221510576</v>
       </c>
       <c r="I69" t="n">
-        <v>4.51491477450707</v>
+        <v>1.5092905597552</v>
       </c>
       <c r="J69" t="n">
-        <v>12.5617687747501</v>
+        <v>3.16908871268211</v>
       </c>
       <c r="K69" t="n">
-        <v>6.56013552016912</v>
+        <v>4.13906727296547</v>
       </c>
       <c r="L69" t="n">
-        <v>0.31766588576552</v>
+        <v>0.168351161727303</v>
       </c>
       <c r="M69" t="s">
         <v>17</v>
@@ -3294,28 +3294,28 @@
         <v>23</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0471164925402921</v>
+        <v>0.191578987323574</v>
       </c>
       <c r="F70" t="n">
-        <v>0.111797065614206</v>
+        <v>0.393104363667808</v>
       </c>
       <c r="G70" t="n">
-        <v>0.437286696395419</v>
+        <v>1.21349307138387</v>
       </c>
       <c r="H70" t="n">
-        <v>0.360118894838093</v>
+        <v>1.0568310026981</v>
       </c>
       <c r="I70" t="n">
-        <v>1.2143093289787</v>
+        <v>2.8603804268228</v>
       </c>
       <c r="J70" t="n">
-        <v>3.74009509032166</v>
+        <v>7.16591118208625</v>
       </c>
       <c r="K70" t="n">
-        <v>6.56013552016912</v>
+        <v>4.13906727296547</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0666581803151753</v>
+        <v>0.29318032091671</v>
       </c>
       <c r="M70" t="s">
         <v>17</v>
@@ -3335,28 +3335,28 @@
         <v>24</v>
       </c>
       <c r="E71" t="n">
-        <v>0.737262372484103</v>
+        <v>0.243810169778453</v>
       </c>
       <c r="F71" t="n">
-        <v>1.73661515238413</v>
+        <v>0.839164164342427</v>
       </c>
       <c r="G71" t="n">
-        <v>5.38165480249472</v>
+        <v>3.31002432141764</v>
       </c>
       <c r="H71" t="n">
-        <v>4.82968720702311</v>
+        <v>2.90815982061156</v>
       </c>
       <c r="I71" t="n">
-        <v>11.9666078802037</v>
+        <v>8.16480378789897</v>
       </c>
       <c r="J71" t="n">
-        <v>45.2102868000248</v>
+        <v>20.4372323668144</v>
       </c>
       <c r="K71" t="n">
-        <v>8.90516343303795</v>
+        <v>5.39021730985312</v>
       </c>
       <c r="L71" t="n">
-        <v>0.604329706350913</v>
+        <v>0.614079939850854</v>
       </c>
       <c r="M71" t="s">
         <v>17</v>
@@ -3376,28 +3376,28 @@
         <v>24</v>
       </c>
       <c r="E72" t="n">
-        <v>0.645008568351789</v>
+        <v>0.204717221697868</v>
       </c>
       <c r="F72" t="n">
-        <v>1.30476750005855</v>
+        <v>0.493087278836272</v>
       </c>
       <c r="G72" t="n">
-        <v>3.20259704783131</v>
+        <v>1.11807877816842</v>
       </c>
       <c r="H72" t="n">
-        <v>2.93487254545793</v>
+        <v>1.02430797726613</v>
       </c>
       <c r="I72" t="n">
-        <v>6.60611993872416</v>
+        <v>2.30465049725298</v>
       </c>
       <c r="J72" t="n">
-        <v>14.5475722746166</v>
+        <v>4.65981326164781</v>
       </c>
       <c r="K72" t="n">
-        <v>8.90516343303795</v>
+        <v>5.39021730985312</v>
       </c>
       <c r="L72" t="n">
-        <v>0.359633719460975</v>
+        <v>0.207427402996278</v>
       </c>
       <c r="M72" t="s">
         <v>17</v>
@@ -3417,28 +3417,28 @@
         <v>24</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0407476766151235</v>
+        <v>0.21584874754311</v>
       </c>
       <c r="F73" t="n">
-        <v>0.108769555690368</v>
+        <v>0.391161492042017</v>
       </c>
       <c r="G73" t="n">
-        <v>0.32091158271193</v>
+        <v>0.962114210267065</v>
       </c>
       <c r="H73" t="n">
-        <v>0.283168742430714</v>
+        <v>0.853852244060294</v>
       </c>
       <c r="I73" t="n">
-        <v>0.755565068404437</v>
+        <v>2.20155924136608</v>
       </c>
       <c r="J73" t="n">
-        <v>1.82858236577505</v>
+        <v>5.1376096180102</v>
       </c>
       <c r="K73" t="n">
-        <v>8.90516343303795</v>
+        <v>5.39021730985312</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0360365741881115</v>
+        <v>0.178492657152868</v>
       </c>
       <c r="M73" t="s">
         <v>17</v>
@@ -3458,28 +3458,28 @@
         <v>25</v>
       </c>
       <c r="E74" t="n">
-        <v>11.5839863346293</v>
+        <v>5.51926343296149</v>
       </c>
       <c r="F74" t="n">
-        <v>34.2892271992753</v>
+        <v>15.7181314017232</v>
       </c>
       <c r="G74" t="n">
-        <v>103.011457701133</v>
+        <v>62.6289701530496</v>
       </c>
       <c r="H74" t="n">
-        <v>93.660635417557</v>
+        <v>55.0683301505356</v>
       </c>
       <c r="I74" t="n">
-        <v>225.373981361668</v>
+        <v>153.419233878511</v>
       </c>
       <c r="J74" t="n">
-        <v>619.131449636669</v>
+        <v>333.308906741706</v>
       </c>
       <c r="K74" t="n">
-        <v>185.39419212405</v>
+        <v>109.976969570647</v>
       </c>
       <c r="L74" t="n">
-        <v>0.555634761374871</v>
+        <v>0.56947350338489</v>
       </c>
       <c r="M74" t="s">
         <v>17</v>
@@ -3499,28 +3499,28 @@
         <v>25</v>
       </c>
       <c r="E75" t="n">
-        <v>15.6683744272472</v>
+        <v>8.13649171848497</v>
       </c>
       <c r="F75" t="n">
-        <v>33.8031641928768</v>
+        <v>12.7594420073476</v>
       </c>
       <c r="G75" t="n">
-        <v>76.2745769352973</v>
+        <v>26.5248940304697</v>
       </c>
       <c r="H75" t="n">
-        <v>70.96126486838</v>
+        <v>24.7978795622396</v>
       </c>
       <c r="I75" t="n">
-        <v>150.180595568295</v>
+        <v>50.5338283542505</v>
       </c>
       <c r="J75" t="n">
-        <v>334.360017645357</v>
+        <v>107.82158458723</v>
       </c>
       <c r="K75" t="n">
-        <v>185.39419212405</v>
+        <v>109.976969570647</v>
       </c>
       <c r="L75" t="n">
-        <v>0.411418373258754</v>
+        <v>0.241185896774785</v>
       </c>
       <c r="M75" t="s">
         <v>17</v>
@@ -3540,28 +3540,28 @@
         <v>25</v>
       </c>
       <c r="E76" t="n">
-        <v>1.00310776825539</v>
+        <v>5.07317657184204</v>
       </c>
       <c r="F76" t="n">
-        <v>2.10648012125371</v>
+        <v>9.18937658725735</v>
       </c>
       <c r="G76" t="n">
-        <v>6.10815748761901</v>
+        <v>20.8231053871274</v>
       </c>
       <c r="H76" t="n">
-        <v>5.40089582681285</v>
+        <v>19.3317542872053</v>
       </c>
       <c r="I76" t="n">
-        <v>14.4403195196493</v>
+        <v>40.9741592096047</v>
       </c>
       <c r="J76" t="n">
-        <v>37.4688357026068</v>
+        <v>76.5533785453819</v>
       </c>
       <c r="K76" t="n">
-        <v>185.39419212405</v>
+        <v>109.976969570647</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0329468653663755</v>
+        <v>0.189340599840325</v>
       </c>
       <c r="M76" t="s">
         <v>17</v>
@@ -3581,28 +3581,28 @@
         <v>26</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0192498206205066</v>
+        <v>0.00872102170110465</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0512285719135253</v>
+        <v>0.0259153377094936</v>
       </c>
       <c r="G77" t="n">
-        <v>0.163397834574768</v>
+        <v>0.100807495734583</v>
       </c>
       <c r="H77" t="n">
-        <v>0.147982879476975</v>
+        <v>0.0888534194107507</v>
       </c>
       <c r="I77" t="n">
-        <v>0.362700602493682</v>
+        <v>0.244640006056124</v>
       </c>
       <c r="J77" t="n">
-        <v>1.12913403039066</v>
+        <v>0.598278791963229</v>
       </c>
       <c r="K77" t="n">
-        <v>0.33608643032231</v>
+        <v>0.184502187379284</v>
       </c>
       <c r="L77" t="n">
-        <v>0.48617801801182</v>
+        <v>0.54637561302919</v>
       </c>
       <c r="M77" t="s">
         <v>17</v>
@@ -3622,28 +3622,28 @@
         <v>26</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0135896024530579</v>
+        <v>0.00793185967321964</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0467681446846812</v>
+        <v>0.0152888322387972</v>
       </c>
       <c r="G78" t="n">
-        <v>0.16110290894438</v>
+        <v>0.0487716240542733</v>
       </c>
       <c r="H78" t="n">
-        <v>0.138419011690501</v>
+        <v>0.0403292851533925</v>
       </c>
       <c r="I78" t="n">
-        <v>0.406452248116863</v>
+        <v>0.132269778577808</v>
       </c>
       <c r="J78" t="n">
-        <v>0.87556225062238</v>
+        <v>0.314161151272524</v>
       </c>
       <c r="K78" t="n">
-        <v>0.33608643032231</v>
+        <v>0.184502187379284</v>
       </c>
       <c r="L78" t="n">
-        <v>0.479349638692286</v>
+        <v>0.264341711862813</v>
       </c>
       <c r="M78" t="s">
         <v>17</v>
@@ -3663,28 +3663,28 @@
         <v>26</v>
       </c>
       <c r="E79" t="n">
-        <v>0.00118282335236916</v>
+        <v>0.00621650090193741</v>
       </c>
       <c r="F79" t="n">
-        <v>0.00361844997320529</v>
+        <v>0.012762589973438</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0115856868031621</v>
+        <v>0.0349230675904277</v>
       </c>
       <c r="H79" t="n">
-        <v>0.00995707292877167</v>
+        <v>0.0314745732739767</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0298740302942119</v>
+        <v>0.0761397945862771</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0891957902068791</v>
+        <v>0.201450353653843</v>
       </c>
       <c r="K79" t="n">
-        <v>0.33608643032231</v>
+        <v>0.184502187379284</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0344723432958936</v>
+        <v>0.189282675107997</v>
       </c>
       <c r="M79" t="s">
         <v>17</v>
@@ -3704,28 +3704,28 @@
         <v>27</v>
       </c>
       <c r="E80" t="n">
-        <v>4.26649798503975</v>
+        <v>1.86923918055446</v>
       </c>
       <c r="F80" t="n">
-        <v>12.0187262779557</v>
+        <v>6.60724705478493</v>
       </c>
       <c r="G80" t="n">
-        <v>42.2462620135755</v>
+        <v>28.5687758630722</v>
       </c>
       <c r="H80" t="n">
-        <v>37.5425490115745</v>
+        <v>25.1798080825501</v>
       </c>
       <c r="I80" t="n">
-        <v>100.460633477657</v>
+        <v>70.6939907645111</v>
       </c>
       <c r="J80" t="n">
-        <v>342.03476624524</v>
+        <v>206.581127503203</v>
       </c>
       <c r="K80" t="n">
-        <v>72.7981226934644</v>
+        <v>42.9372441346065</v>
       </c>
       <c r="L80" t="n">
-        <v>0.580320761724372</v>
+        <v>0.665361190241047</v>
       </c>
       <c r="M80" t="s">
         <v>17</v>
@@ -3745,28 +3745,28 @@
         <v>27</v>
       </c>
       <c r="E81" t="n">
-        <v>4.39628712226956</v>
+        <v>1.42294238559352</v>
       </c>
       <c r="F81" t="n">
-        <v>9.97581268917254</v>
+        <v>3.61798169025557</v>
       </c>
       <c r="G81" t="n">
-        <v>27.0013894963876</v>
+        <v>9.04391217151543</v>
       </c>
       <c r="H81" t="n">
-        <v>24.1776406342893</v>
+        <v>8.18089229529873</v>
       </c>
       <c r="I81" t="n">
-        <v>60.7933225377175</v>
+        <v>19.8105237293263</v>
       </c>
       <c r="J81" t="n">
-        <v>188.588533483386</v>
+        <v>46.107861628443</v>
       </c>
       <c r="K81" t="n">
-        <v>72.7981226934644</v>
+        <v>42.9372441346065</v>
       </c>
       <c r="L81" t="n">
-        <v>0.370907772032584</v>
+        <v>0.210630941826707</v>
       </c>
       <c r="M81" t="s">
         <v>17</v>
@@ -3786,28 +3786,28 @@
         <v>27</v>
       </c>
       <c r="E82" t="n">
-        <v>0.348371565280823</v>
+        <v>1.35187562288018</v>
       </c>
       <c r="F82" t="n">
-        <v>0.850562756086513</v>
+        <v>2.40647397962615</v>
       </c>
       <c r="G82" t="n">
-        <v>3.55047118350124</v>
+        <v>5.3245561000189</v>
       </c>
       <c r="H82" t="n">
-        <v>2.85285567447922</v>
+        <v>4.93058947021592</v>
       </c>
       <c r="I82" t="n">
-        <v>10.074063279967</v>
+        <v>10.5686435813594</v>
       </c>
       <c r="J82" t="n">
-        <v>24.8473687524947</v>
+        <v>31.3174713177741</v>
       </c>
       <c r="K82" t="n">
-        <v>72.7981226934644</v>
+        <v>42.9372441346065</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0487714662430435</v>
+        <v>0.124007867932246</v>
       </c>
       <c r="M82" t="s">
         <v>17</v>
@@ -3827,28 +3827,28 @@
         <v>16</v>
       </c>
       <c r="E83" t="n">
-        <v>20226.6728015455</v>
+        <v>1833.9972246051</v>
       </c>
       <c r="F83" t="n">
-        <v>36445.2608986991</v>
+        <v>10939.5112904046</v>
       </c>
       <c r="G83" t="n">
-        <v>72027.8110547414</v>
+        <v>25523.8415375821</v>
       </c>
       <c r="H83" t="n">
-        <v>68110.9870508976</v>
+        <v>23845.2537324689</v>
       </c>
       <c r="I83" t="n">
-        <v>130953.096143361</v>
+        <v>49265.2542971955</v>
       </c>
       <c r="J83" t="n">
-        <v>230011.758731049</v>
+        <v>99702.4355794138</v>
       </c>
       <c r="K83" t="n">
-        <v>109632.718183634</v>
+        <v>72602.8387329154</v>
       </c>
       <c r="L83" t="n">
-        <v>0.656991929490386</v>
+        <v>0.351554319128992</v>
       </c>
       <c r="M83" t="s">
         <v>17</v>
@@ -3868,28 +3868,28 @@
         <v>16</v>
       </c>
       <c r="E84" t="n">
-        <v>6221.24491181103</v>
+        <v>1378.02718344846</v>
       </c>
       <c r="F84" t="n">
-        <v>12627.1074194985</v>
+        <v>2339.78357337251</v>
       </c>
       <c r="G84" t="n">
-        <v>31300.8883505003</v>
+        <v>4322.89389149724</v>
       </c>
       <c r="H84" t="n">
-        <v>28708.3836964068</v>
+        <v>4097.5451673435</v>
       </c>
       <c r="I84" t="n">
-        <v>64217.8021768321</v>
+        <v>7667.8340546165</v>
       </c>
       <c r="J84" t="n">
-        <v>128377.918054312</v>
+        <v>14973.7520689903</v>
       </c>
       <c r="K84" t="n">
-        <v>109632.718183634</v>
+        <v>72602.8387329154</v>
       </c>
       <c r="L84" t="n">
-        <v>0.285506816478559</v>
+        <v>0.0595416648569335</v>
       </c>
       <c r="M84" t="s">
         <v>17</v>
@@ -3909,28 +3909,28 @@
         <v>16</v>
       </c>
       <c r="E85" t="n">
-        <v>282.693753777517</v>
+        <v>19201.0524226326</v>
       </c>
       <c r="F85" t="n">
-        <v>1348.23310245164</v>
+        <v>27704.7268490638</v>
       </c>
       <c r="G85" t="n">
-        <v>6304.01877839222</v>
+        <v>42756.1033038361</v>
       </c>
       <c r="H85" t="n">
-        <v>5021.47640263776</v>
+        <v>41917.6954688038</v>
       </c>
       <c r="I85" t="n">
-        <v>18463.8270591297</v>
+        <v>62899.8669787849</v>
       </c>
       <c r="J85" t="n">
-        <v>55265.9171451548</v>
+        <v>89288.9699524989</v>
       </c>
       <c r="K85" t="n">
-        <v>109632.718183634</v>
+        <v>72602.8387329154</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0575012540310552</v>
+        <v>0.588904016014074</v>
       </c>
       <c r="M85" t="s">
         <v>17</v>
@@ -3950,28 +3950,28 @@
         <v>20</v>
       </c>
       <c r="E86" t="n">
-        <v>1900.00818884544</v>
+        <v>242.937118100356</v>
       </c>
       <c r="F86" t="n">
-        <v>4030.49955636955</v>
+        <v>1334.93174978624</v>
       </c>
       <c r="G86" t="n">
-        <v>8223.58252576977</v>
+        <v>3229.29562205382</v>
       </c>
       <c r="H86" t="n">
-        <v>7710.60032672319</v>
+        <v>2991.39628558266</v>
       </c>
       <c r="I86" t="n">
-        <v>15275.891465178</v>
+        <v>6501.73286122857</v>
       </c>
       <c r="J86" t="n">
-        <v>26113.1538812114</v>
+        <v>12606.882692223</v>
       </c>
       <c r="K86" t="n">
-        <v>11627.4320163108</v>
+        <v>8989.67980945146</v>
       </c>
       <c r="L86" t="n">
-        <v>0.707256986257488</v>
+        <v>0.359222540791568</v>
       </c>
       <c r="M86" t="s">
         <v>17</v>
@@ -3991,28 +3991,28 @@
         <v>20</v>
       </c>
       <c r="E87" t="n">
-        <v>493.544582585718</v>
+        <v>109.055672410561</v>
       </c>
       <c r="F87" t="n">
-        <v>1091.60387288115</v>
+        <v>202.936336779937</v>
       </c>
       <c r="G87" t="n">
-        <v>2743.63337549617</v>
+        <v>376.136188413106</v>
       </c>
       <c r="H87" t="n">
-        <v>2518.77372320388</v>
+        <v>356.525831624318</v>
       </c>
       <c r="I87" t="n">
-        <v>5667.61722122611</v>
+        <v>663.20390945203</v>
       </c>
       <c r="J87" t="n">
-        <v>11405.4930546028</v>
+        <v>1471.75750383306</v>
       </c>
       <c r="K87" t="n">
-        <v>11627.4320163108</v>
+        <v>8989.67980945146</v>
       </c>
       <c r="L87" t="n">
-        <v>0.235962108541891</v>
+        <v>0.0418408882614093</v>
       </c>
       <c r="M87" t="s">
         <v>17</v>
@@ -4032,28 +4032,28 @@
         <v>20</v>
       </c>
       <c r="E88" t="n">
-        <v>26.0061043954443</v>
+        <v>2169.90104464188</v>
       </c>
       <c r="F88" t="n">
-        <v>128.375467772468</v>
+        <v>3257.09338394837</v>
       </c>
       <c r="G88" t="n">
-        <v>660.21611504481</v>
+        <v>5384.24799898454</v>
       </c>
       <c r="H88" t="n">
-        <v>511.736659271085</v>
+        <v>5229.37856477796</v>
       </c>
       <c r="I88" t="n">
-        <v>2033.77844345819</v>
+        <v>8372.02360290906</v>
       </c>
       <c r="J88" t="n">
-        <v>7096.85897823526</v>
+        <v>12325.9272087131</v>
       </c>
       <c r="K88" t="n">
-        <v>11627.4320163108</v>
+        <v>8989.67980945146</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0567809052006213</v>
+        <v>0.598936570947022</v>
       </c>
       <c r="M88" t="s">
         <v>17</v>
@@ -4073,28 +4073,28 @@
         <v>21</v>
       </c>
       <c r="E89" t="n">
-        <v>8.35552200050403</v>
+        <v>1.42573460464363</v>
       </c>
       <c r="F89" t="n">
-        <v>21.3965290776123</v>
+        <v>6.33803656908018</v>
       </c>
       <c r="G89" t="n">
-        <v>55.0473520308457</v>
+        <v>20.8309876992354</v>
       </c>
       <c r="H89" t="n">
-        <v>51.038673508104</v>
+        <v>18.7527451342416</v>
       </c>
       <c r="I89" t="n">
-        <v>112.958795736667</v>
+        <v>47.5024018682133</v>
       </c>
       <c r="J89" t="n">
-        <v>237.335442189214</v>
+        <v>104.048916658654</v>
       </c>
       <c r="K89" t="n">
-        <v>77.2492739241422</v>
+        <v>54.7652070848</v>
       </c>
       <c r="L89" t="n">
-        <v>0.712593779003043</v>
+        <v>0.380369011788454</v>
       </c>
       <c r="M89" t="s">
         <v>17</v>
@@ -4114,28 +4114,28 @@
         <v>21</v>
       </c>
       <c r="E90" t="n">
-        <v>1.73127146395646</v>
+        <v>0.473871958443119</v>
       </c>
       <c r="F90" t="n">
-        <v>4.76834903935571</v>
+        <v>0.906496661736256</v>
       </c>
       <c r="G90" t="n">
-        <v>19.5380677542503</v>
+        <v>2.74373528825468</v>
       </c>
       <c r="H90" t="n">
-        <v>15.1212895389697</v>
+        <v>2.28201029090451</v>
       </c>
       <c r="I90" t="n">
-        <v>60.6481476889949</v>
+        <v>7.10304887256855</v>
       </c>
       <c r="J90" t="n">
-        <v>168.282485683525</v>
+        <v>16.0233342359836</v>
       </c>
       <c r="K90" t="n">
-        <v>77.2492739241422</v>
+        <v>54.7652070848</v>
       </c>
       <c r="L90" t="n">
-        <v>0.252922348156132</v>
+        <v>0.0500999710273387</v>
       </c>
       <c r="M90" t="s">
         <v>17</v>
@@ -4155,28 +4155,28 @@
         <v>21</v>
       </c>
       <c r="E91" t="n">
-        <v>0.153931032524107</v>
+        <v>9.14022181309656</v>
       </c>
       <c r="F91" t="n">
-        <v>0.522752852957649</v>
+        <v>15.7535133109257</v>
       </c>
       <c r="G91" t="n">
-        <v>2.66385413904625</v>
+        <v>31.1904840973099</v>
       </c>
       <c r="H91" t="n">
-        <v>2.08678319082367</v>
+        <v>29.7982480952893</v>
       </c>
       <c r="I91" t="n">
-        <v>8.18539714547642</v>
+        <v>54.4529924510039</v>
       </c>
       <c r="J91" t="n">
-        <v>25.5160016593288</v>
+        <v>96.5266005115867</v>
       </c>
       <c r="K91" t="n">
-        <v>77.2492739241422</v>
+        <v>54.7652070848</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0344838728408259</v>
+        <v>0.569531017184207</v>
       </c>
       <c r="M91" t="s">
         <v>17</v>
@@ -4196,28 +4196,28 @@
         <v>22</v>
       </c>
       <c r="E92" t="n">
-        <v>0.936281326890123</v>
+        <v>0.0915138717998519</v>
       </c>
       <c r="F92" t="n">
-        <v>2.82184615709978</v>
+        <v>0.388302869040905</v>
       </c>
       <c r="G92" t="n">
-        <v>8.78593699666615</v>
+        <v>1.21716644683402</v>
       </c>
       <c r="H92" t="n">
-        <v>7.98834029722014</v>
+        <v>1.06105555851873</v>
       </c>
       <c r="I92" t="n">
-        <v>19.2068469575164</v>
+        <v>2.97801298002335</v>
       </c>
       <c r="J92" t="n">
-        <v>75.4018914630803</v>
+        <v>12.643902806589</v>
       </c>
       <c r="K92" t="n">
-        <v>24.8630938167296</v>
+        <v>5.7666566058659</v>
       </c>
       <c r="L92" t="n">
-        <v>0.35337263582034</v>
+        <v>0.211069694282803</v>
       </c>
       <c r="M92" t="s">
         <v>17</v>
@@ -4237,28 +4237,28 @@
         <v>22</v>
       </c>
       <c r="E93" t="n">
-        <v>2.1097513429533</v>
+        <v>0.532568373492503</v>
       </c>
       <c r="F93" t="n">
-        <v>5.25920472132413</v>
+        <v>1.03171161268866</v>
       </c>
       <c r="G93" t="n">
-        <v>15.7828743631769</v>
+        <v>2.33696856754407</v>
       </c>
       <c r="H93" t="n">
-        <v>13.7947738694034</v>
+        <v>2.1417493907169</v>
       </c>
       <c r="I93" t="n">
-        <v>37.5383669052103</v>
+        <v>4.68558068523006</v>
       </c>
       <c r="J93" t="n">
-        <v>79.3990026687811</v>
+        <v>11.203621055053</v>
       </c>
       <c r="K93" t="n">
-        <v>24.8630938167296</v>
+        <v>5.7666566058659</v>
       </c>
       <c r="L93" t="n">
-        <v>0.634791248406788</v>
+        <v>0.405255371919819</v>
       </c>
       <c r="M93" t="s">
         <v>17</v>
@@ -4278,28 +4278,28 @@
         <v>22</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0133492983087749</v>
+        <v>0.730647530113912</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0568855837671703</v>
+        <v>1.20295772450213</v>
       </c>
       <c r="G94" t="n">
-        <v>0.294282456886585</v>
+        <v>2.21252159148781</v>
       </c>
       <c r="H94" t="n">
-        <v>0.225401762666181</v>
+        <v>2.09400831431796</v>
       </c>
       <c r="I94" t="n">
-        <v>0.917752987424922</v>
+        <v>3.91178290576803</v>
       </c>
       <c r="J94" t="n">
-        <v>3.91698468446754</v>
+        <v>7.45171981055594</v>
       </c>
       <c r="K94" t="n">
-        <v>24.8630938167296</v>
+        <v>5.7666566058659</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0118361157728718</v>
+        <v>0.383674933797378</v>
       </c>
       <c r="M94" t="s">
         <v>17</v>
@@ -4319,28 +4319,28 @@
         <v>23</v>
       </c>
       <c r="E95" t="n">
-        <v>0.181016821229249</v>
+        <v>0.0272116381929811</v>
       </c>
       <c r="F95" t="n">
-        <v>0.547587042419786</v>
+        <v>0.137458242828243</v>
       </c>
       <c r="G95" t="n">
-        <v>2.01383877988226</v>
+        <v>0.887978376594552</v>
       </c>
       <c r="H95" t="n">
-        <v>1.68759038006516</v>
+        <v>0.680976748733618</v>
       </c>
       <c r="I95" t="n">
-        <v>5.28608673609628</v>
+        <v>2.68047429766662</v>
       </c>
       <c r="J95" t="n">
-        <v>14.4929140304583</v>
+        <v>6.3330583885319</v>
       </c>
       <c r="K95" t="n">
-        <v>2.76176169476177</v>
+        <v>2.43316681295445</v>
       </c>
       <c r="L95" t="n">
-        <v>0.72918629572635</v>
+        <v>0.364947594988908</v>
       </c>
       <c r="M95" t="s">
         <v>17</v>
@@ -4360,28 +4360,28 @@
         <v>23</v>
       </c>
       <c r="E96" t="n">
-        <v>0.102466483556536</v>
+        <v>0.0209785667459499</v>
       </c>
       <c r="F96" t="n">
-        <v>0.209410870311323</v>
+        <v>0.0398162749642096</v>
       </c>
       <c r="G96" t="n">
-        <v>0.59454882536393</v>
+        <v>0.0860115038000885</v>
       </c>
       <c r="H96" t="n">
-        <v>0.523901607972199</v>
+        <v>0.0794925680418175</v>
       </c>
       <c r="I96" t="n">
-        <v>1.39894702561226</v>
+        <v>0.168526991016872</v>
       </c>
       <c r="J96" t="n">
-        <v>3.00606458458655</v>
+        <v>0.388225266882341</v>
       </c>
       <c r="K96" t="n">
-        <v>2.76176169476177</v>
+        <v>2.43316681295445</v>
       </c>
       <c r="L96" t="n">
-        <v>0.215278829629512</v>
+        <v>0.0353496124236751</v>
       </c>
       <c r="M96" t="s">
         <v>17</v>
@@ -4401,28 +4401,28 @@
         <v>23</v>
       </c>
       <c r="E97" t="n">
-        <v>0.00738244266560109</v>
+        <v>0.242876794546294</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0219335339947498</v>
+        <v>0.556941042767339</v>
       </c>
       <c r="G97" t="n">
-        <v>0.153374089515578</v>
+        <v>1.45917693255981</v>
       </c>
       <c r="H97" t="n">
-        <v>0.109699819295247</v>
+        <v>1.31284082203174</v>
       </c>
       <c r="I97" t="n">
-        <v>0.54016027154362</v>
+        <v>3.07751987784068</v>
       </c>
       <c r="J97" t="n">
-        <v>2.13874174096797</v>
+        <v>5.45447979988605</v>
       </c>
       <c r="K97" t="n">
-        <v>2.76176169476177</v>
+        <v>2.43316681295445</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0555348746441383</v>
+        <v>0.599702792587417</v>
       </c>
       <c r="M97" t="s">
         <v>17</v>
@@ -4442,28 +4442,28 @@
         <v>24</v>
       </c>
       <c r="E98" t="n">
-        <v>0.315520904455785</v>
+        <v>0.0592516279268513</v>
       </c>
       <c r="F98" t="n">
-        <v>0.781894467581296</v>
+        <v>0.20890439352135</v>
       </c>
       <c r="G98" t="n">
-        <v>2.13354912395895</v>
+        <v>0.770910449336563</v>
       </c>
       <c r="H98" t="n">
-        <v>1.91790634459177</v>
+        <v>0.638153790864921</v>
       </c>
       <c r="I98" t="n">
-        <v>4.66180407997719</v>
+        <v>2.12608634253561</v>
       </c>
       <c r="J98" t="n">
-        <v>12.5598404320148</v>
+        <v>6.43285001627765</v>
       </c>
       <c r="K98" t="n">
-        <v>3.14931007223196</v>
+        <v>2.05165970771063</v>
       </c>
       <c r="L98" t="n">
-        <v>0.677465563893135</v>
+        <v>0.375749665716638</v>
       </c>
       <c r="M98" t="s">
         <v>17</v>
@@ -4483,28 +4483,28 @@
         <v>24</v>
       </c>
       <c r="E99" t="n">
-        <v>0.158118088844387</v>
+        <v>0.0323767493785898</v>
       </c>
       <c r="F99" t="n">
-        <v>0.325259208182205</v>
+        <v>0.0595181953023992</v>
       </c>
       <c r="G99" t="n">
-        <v>0.875318909316628</v>
+        <v>0.123006209993833</v>
       </c>
       <c r="H99" t="n">
-        <v>0.785597460469518</v>
+        <v>0.115308843965431</v>
       </c>
       <c r="I99" t="n">
-        <v>1.92804516162622</v>
+        <v>0.233132804034115</v>
       </c>
       <c r="J99" t="n">
-        <v>4.47622029274471</v>
+        <v>0.479801852495671</v>
       </c>
       <c r="K99" t="n">
-        <v>3.14931007223196</v>
+        <v>2.05165970771063</v>
       </c>
       <c r="L99" t="n">
-        <v>0.277939894529432</v>
+        <v>0.0599544893003195</v>
       </c>
       <c r="M99" t="s">
         <v>17</v>
@@ -4524,28 +4524,28 @@
         <v>24</v>
       </c>
       <c r="E100" t="n">
-        <v>0.00599470877827365</v>
+        <v>0.364570440206111</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0275224889614463</v>
+        <v>0.582881504080713</v>
       </c>
       <c r="G100" t="n">
-        <v>0.140442038956378</v>
+        <v>1.15774304838023</v>
       </c>
       <c r="H100" t="n">
-        <v>0.110430690833284</v>
+        <v>1.05920419688264</v>
       </c>
       <c r="I100" t="n">
-        <v>0.436009564453251</v>
+        <v>2.31734358924616</v>
       </c>
       <c r="J100" t="n">
-        <v>1.60468426394375</v>
+        <v>4.05920564137116</v>
       </c>
       <c r="K100" t="n">
-        <v>3.14931007223196</v>
+        <v>2.05165970771063</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0445945415774333</v>
+        <v>0.564295844983042</v>
       </c>
       <c r="M100" t="s">
         <v>17</v>
@@ -4565,28 +4565,28 @@
         <v>25</v>
       </c>
       <c r="E101" t="n">
-        <v>6.39141539829279</v>
+        <v>0.999655960426012</v>
       </c>
       <c r="F101" t="n">
-        <v>16.7484644810703</v>
+        <v>4.69008913602796</v>
       </c>
       <c r="G101" t="n">
-        <v>42.0179715830034</v>
+        <v>15.5928265753228</v>
       </c>
       <c r="H101" t="n">
-        <v>38.853516547982</v>
+        <v>13.7815178024498</v>
       </c>
       <c r="I101" t="n">
-        <v>86.9019746981263</v>
+        <v>36.4096973300956</v>
       </c>
       <c r="J101" t="n">
-        <v>181.963199070562</v>
+        <v>69.2589257054728</v>
       </c>
       <c r="K101" t="n">
-        <v>65.2840660646109</v>
+        <v>40.9266705503669</v>
       </c>
       <c r="L101" t="n">
-        <v>0.643617564221852</v>
+        <v>0.380994260359717</v>
       </c>
       <c r="M101" t="s">
         <v>17</v>
@@ -4606,28 +4606,28 @@
         <v>25</v>
       </c>
       <c r="E102" t="n">
-        <v>4.14055860337006</v>
+        <v>0.871251060902835</v>
       </c>
       <c r="F102" t="n">
-        <v>8.34472827447249</v>
+        <v>1.57608363332891</v>
       </c>
       <c r="G102" t="n">
-        <v>20.889176656606</v>
+        <v>2.99252595383701</v>
       </c>
       <c r="H102" t="n">
-        <v>19.136421137277</v>
+        <v>2.83908621805059</v>
       </c>
       <c r="I102" t="n">
-        <v>43.1638067601502</v>
+        <v>5.3894569651022</v>
       </c>
       <c r="J102" t="n">
-        <v>89.5661452987742</v>
+        <v>9.22056031592416</v>
       </c>
       <c r="K102" t="n">
-        <v>65.2840660646109</v>
+        <v>40.9266705503669</v>
       </c>
       <c r="L102" t="n">
-        <v>0.319973584916298</v>
+        <v>0.0731192133050312</v>
       </c>
       <c r="M102" t="s">
         <v>17</v>
@@ -4647,28 +4647,28 @@
         <v>25</v>
       </c>
       <c r="E103" t="n">
-        <v>0.130526545585815</v>
+        <v>7.91158353775744</v>
       </c>
       <c r="F103" t="n">
-        <v>0.496427813789741</v>
+        <v>11.7478369047042</v>
       </c>
       <c r="G103" t="n">
-        <v>2.37691782500157</v>
+        <v>22.341318021207</v>
       </c>
       <c r="H103" t="n">
-        <v>1.88185932073075</v>
+        <v>21.2568297833758</v>
       </c>
       <c r="I103" t="n">
-        <v>7.1538332644113</v>
+        <v>39.3220426665407</v>
       </c>
       <c r="J103" t="n">
-        <v>20.6270111025026</v>
+        <v>77.0729740562191</v>
       </c>
       <c r="K103" t="n">
-        <v>65.2840660646109</v>
+        <v>40.9266705503669</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0364088508618498</v>
+        <v>0.545886526335251</v>
       </c>
       <c r="M103" t="s">
         <v>17</v>
@@ -4688,28 +4688,28 @@
         <v>26</v>
       </c>
       <c r="E104" t="n">
-        <v>0.00978736757968176</v>
+        <v>0.00143884486117885</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0228833743736855</v>
+        <v>0.00551851024996745</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0634580933355305</v>
+        <v>0.0224532929906544</v>
       </c>
       <c r="H104" t="n">
-        <v>0.0574858379771684</v>
+        <v>0.0189633417465717</v>
       </c>
       <c r="I104" t="n">
-        <v>0.138600958598226</v>
+        <v>0.060840542128592</v>
       </c>
       <c r="J104" t="n">
-        <v>0.308307343790889</v>
+        <v>0.172409794023171</v>
       </c>
       <c r="K104" t="n">
-        <v>0.117306557729303</v>
+        <v>0.0685609524692209</v>
       </c>
       <c r="L104" t="n">
-        <v>0.540959470330438</v>
+        <v>0.327493889480815</v>
       </c>
       <c r="M104" t="s">
         <v>17</v>
@@ -4729,28 +4729,28 @@
         <v>26</v>
       </c>
       <c r="E105" t="n">
-        <v>0.00538196461909998</v>
+        <v>0.0013936932904714</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0134381461643416</v>
+        <v>0.00281766918870271</v>
       </c>
       <c r="G105" t="n">
-        <v>0.04948122127324</v>
+        <v>0.00812671918679765</v>
       </c>
       <c r="H105" t="n">
-        <v>0.0416097087520696</v>
+        <v>0.00719973671378439</v>
       </c>
       <c r="I105" t="n">
-        <v>0.132718737699118</v>
+        <v>0.0185514678302715</v>
       </c>
       <c r="J105" t="n">
-        <v>0.297537437370015</v>
+        <v>0.0447186370625334</v>
       </c>
       <c r="K105" t="n">
-        <v>0.117306557729303</v>
+        <v>0.0685609524692209</v>
       </c>
       <c r="L105" t="n">
-        <v>0.42181121184566</v>
+        <v>0.118532763827136</v>
       </c>
       <c r="M105" t="s">
         <v>17</v>
@@ -4770,28 +4770,28 @@
         <v>26</v>
       </c>
       <c r="E106" t="n">
-        <v>0.000181337771700954</v>
+        <v>0.0103860994481277</v>
       </c>
       <c r="F106" t="n">
-        <v>0.00084055407634738</v>
+        <v>0.018280241804221</v>
       </c>
       <c r="G106" t="n">
-        <v>0.00436724312053221</v>
+        <v>0.0379809402917688</v>
       </c>
       <c r="H106" t="n">
-        <v>0.00332893394544846</v>
+        <v>0.0353493036760269</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0135532903214902</v>
+        <v>0.0734405140307679</v>
       </c>
       <c r="J106" t="n">
-        <v>0.055357928103214</v>
+        <v>0.125283697563146</v>
       </c>
       <c r="K106" t="n">
-        <v>0.117306557729303</v>
+        <v>0.0685609524692209</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0372293178239028</v>
+        <v>0.553973346692049</v>
       </c>
       <c r="M106" t="s">
         <v>17</v>
@@ -4811,28 +4811,28 @@
         <v>27</v>
       </c>
       <c r="E107" t="n">
-        <v>1.54857325441624</v>
+        <v>0.144652685517423</v>
       </c>
       <c r="F107" t="n">
-        <v>4.30622804794742</v>
+        <v>0.908753131160276</v>
       </c>
       <c r="G107" t="n">
-        <v>12.329468528751</v>
+        <v>2.80791154514978</v>
       </c>
       <c r="H107" t="n">
-        <v>11.3433111315058</v>
+        <v>2.42645957353023</v>
       </c>
       <c r="I107" t="n">
-        <v>26.194290018302</v>
+        <v>7.41075547988746</v>
       </c>
       <c r="J107" t="n">
-        <v>59.9167101478629</v>
+        <v>21.3385402697675</v>
       </c>
       <c r="K107" t="n">
-        <v>22.0296809285362</v>
+        <v>12.6934794065257</v>
       </c>
       <c r="L107" t="n">
-        <v>0.55967531117439</v>
+        <v>0.221208973144609</v>
       </c>
       <c r="M107" t="s">
         <v>17</v>
@@ -4852,28 +4852,28 @@
         <v>27</v>
       </c>
       <c r="E108" t="n">
-        <v>1.07488022874132</v>
+        <v>0.229438226303559</v>
       </c>
       <c r="F108" t="n">
-        <v>2.47476505877617</v>
+        <v>0.464103773627472</v>
       </c>
       <c r="G108" t="n">
-        <v>7.62580673564281</v>
+        <v>1.14222289081269</v>
       </c>
       <c r="H108" t="n">
-        <v>6.68791114938538</v>
+        <v>1.02481497404547</v>
       </c>
       <c r="I108" t="n">
-        <v>18.2635803186816</v>
+        <v>2.48565842899028</v>
       </c>
       <c r="J108" t="n">
-        <v>43.5301711693472</v>
+        <v>4.57137303562461</v>
       </c>
       <c r="K108" t="n">
-        <v>22.0296809285362</v>
+        <v>12.6934794065257</v>
       </c>
       <c r="L108" t="n">
-        <v>0.346160562215166</v>
+        <v>0.0899850115347792</v>
       </c>
       <c r="M108" t="s">
         <v>17</v>
@@ -4893,28 +4893,28 @@
         <v>27</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0661776959871535</v>
+        <v>1.82244564886408</v>
       </c>
       <c r="F109" t="n">
-        <v>0.24384497744814</v>
+        <v>3.56506700636163</v>
       </c>
       <c r="G109" t="n">
-        <v>2.07440566414234</v>
+        <v>8.74334497056319</v>
       </c>
       <c r="H109" t="n">
-        <v>1.34844805863833</v>
+        <v>7.71173506359619</v>
       </c>
       <c r="I109" t="n">
-        <v>8.29622697253453</v>
+        <v>18.7453158285</v>
       </c>
       <c r="J109" t="n">
-        <v>35.3567404017832</v>
+        <v>32.1678415398826</v>
       </c>
       <c r="K109" t="n">
-        <v>22.0296809285362</v>
+        <v>12.6934794065257</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0941641266104431</v>
+        <v>0.688806015320612</v>
       </c>
       <c r="M109" t="s">
         <v>17</v>
